--- a/src/attributions/attributions_saliency_traj_461.xlsx
+++ b/src/attributions/attributions_saliency_traj_461.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001220328922499903</v>
+        <v>0.000848695170134306</v>
       </c>
       <c r="B2" t="n">
-        <v>5.816576958750375e-05</v>
+        <v>0.01699518784880638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006421326543204486</v>
+        <v>0.0003455341211520135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001336017885478213</v>
+        <v>0.005400278139859438</v>
       </c>
       <c r="E2" t="n">
-        <v>7.608768646605313e-05</v>
+        <v>0.00451749749481678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001253848749911413</v>
+        <v>0.00838061235845089</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001395740691805258</v>
+        <v>0.001949849538505077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000453553773695603</v>
+        <v>0.01123142056167126</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002790132421068847</v>
+        <v>0.01992828771471977</v>
       </c>
       <c r="J2" t="n">
-        <v>1.136006721935701e-05</v>
+        <v>0.0045323446393013</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001773520052665845</v>
+        <v>0.01163334771990776</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005377347115427256</v>
+        <v>0.0004038217011839151</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0002359745558351278</v>
+        <v>0.01351839117705822</v>
       </c>
       <c r="N2" t="n">
-        <v>7.402229675790295e-05</v>
+        <v>0.0001336317509412766</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001526989653939381</v>
+        <v>0.004718202631920576</v>
       </c>
       <c r="P2" t="n">
-        <v>2.261345252918545e-05</v>
+        <v>0.003675890620797873</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005610187654383481</v>
+        <v>0.006520871073007584</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0004344845656305552</v>
+        <v>0.02080735191702843</v>
       </c>
       <c r="S2" t="n">
-        <v>2.145243342965841e-05</v>
+        <v>0.002429133048281074</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0002989185450132936</v>
+        <v>0.000865609385073185</v>
       </c>
       <c r="U2" t="n">
-        <v>9.319412129116245e-06</v>
+        <v>0.004016713239252567</v>
       </c>
       <c r="V2" t="n">
-        <v>1.554826667415909e-05</v>
+        <v>0.0002130864886566997</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000132531946292147</v>
+        <v>0.003201317973434925</v>
       </c>
       <c r="X2" t="n">
-        <v>3.784153523156419e-05</v>
+        <v>0.0072020273655653</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.953483534744009e-05</v>
+        <v>0.0001943573006428778</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001174023491330445</v>
+        <v>0.00306343100965023</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.019393236376345e-05</v>
+        <v>0.003276703646406531</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.371057624055538e-05</v>
+        <v>0.004770838655531406</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.793411451624706e-05</v>
+        <v>0.002176379319280386</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.014897058368661e-05</v>
+        <v>0.0134718269109726</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.376398182008415e-05</v>
+        <v>0.001087144715711474</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0001193523494293913</v>
+        <v>0.001975623657926917</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.894221638096496e-05</v>
+        <v>0.001736472244374454</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.651338819414377e-05</v>
+        <v>0.003142287954688072</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001616522786207497</v>
+        <v>0.0002380769001320004</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0003524946223478764</v>
+        <v>0.0002925023436546326</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.163846486131661e-06</v>
+        <v>0.001236520591191947</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001135792263085023</v>
+        <v>0.001058223773725331</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001578999508637935</v>
+        <v>0.0014925766736269</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.455175753217191e-05</v>
+        <v>0.001085140975192189</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001618011447135359</v>
+        <v>0.002367688342928886</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.523520485439803e-07</v>
+        <v>0.002809495199471712</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.953060048748739e-06</v>
+        <v>0.001216090051457286</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.167178874718957e-05</v>
+        <v>0.0004880197811871767</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.463811875320971e-05</v>
+        <v>0.002188948448747396</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.892972770496272e-05</v>
+        <v>0.0006352955242618918</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001276241528103128</v>
+        <v>0.01963754184544086</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0003817983088083565</v>
+        <v>0.0028310043271631</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0002188198850490153</v>
+        <v>0.0007346943602897227</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.655068424763158e-05</v>
+        <v>0.01695477031171322</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0001983641559490934</v>
+        <v>0.0001308675855398178</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.527493234083522e-05</v>
+        <v>0.003875984344631433</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0002321992942597717</v>
+        <v>0.005373409483581781</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.991208384628408e-05</v>
+        <v>0.002657397650182247</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.086223710444756e-05</v>
+        <v>0.003279108321294188</v>
       </c>
       <c r="BD2" t="n">
-        <v>6.90952074364759e-05</v>
+        <v>0.003679679241031408</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0001359261805191636</v>
+        <v>0.001761261140927672</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.471192707773298e-06</v>
+        <v>0.002372334944084287</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0001706632901914418</v>
+        <v>0.003308593761175871</v>
       </c>
       <c r="BH2" t="n">
-        <v>9.817143291002139e-05</v>
+        <v>0.0105659170076251</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001049111015163362</v>
+        <v>0.001406264957040548</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0002401752717560157</v>
+        <v>0.00587119534611702</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.155669426429085e-05</v>
+        <v>0.01976854912936687</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.352438423258718e-05</v>
+        <v>0.002190220169723034</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.586619565496221e-05</v>
+        <v>0.001491679693572223</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0001278026902582496</v>
+        <v>0.002807086333632469</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.101759986951947e-05</v>
+        <v>0.0007783723995089531</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.297378134448081e-05</v>
+        <v>0.01605900563299656</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001133205223595724</v>
+        <v>0.004641854669898748</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.527069045754615e-05</v>
+        <v>0.004465834703296423</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0001499873906141147</v>
+        <v>0.002064395695924759</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.000160441966727376</v>
+        <v>0.005792056210339069</v>
       </c>
       <c r="BU2" t="n">
-        <v>5.597034032689407e-05</v>
+        <v>0.001125227892771363</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.857107235991862e-05</v>
+        <v>0.01117145363241434</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0002486409211996943</v>
+        <v>0.005375232081860304</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.428849984426051e-05</v>
+        <v>0.0003815028467215598</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001235826348420233</v>
+        <v>0.004696278367191553</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.054063927265815e-05</v>
+        <v>0.002921134233474731</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.102883394807577e-05</v>
+        <v>7.816340075805783e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0001204771979246289</v>
+        <v>0.004522373899817467</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0001466339017497376</v>
+        <v>0.004554739221930504</v>
       </c>
       <c r="CD2" t="n">
-        <v>6.083427433623001e-05</v>
+        <v>0.0002966079628095031</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.504368462221464e-06</v>
+        <v>0.003065576544031501</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0001135419443016872</v>
+        <v>0.002196721732616425</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.505653148749843e-05</v>
+        <v>1.279346906812862e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.596417860127985e-07</v>
+        <v>0.001139524974860251</v>
       </c>
       <c r="CI2" t="n">
-        <v>5.886445251235273e-06</v>
+        <v>0.0008077343227341771</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.682290505617857e-05</v>
+        <v>0.00165006029419601</v>
       </c>
       <c r="CK2" t="n">
-        <v>7.855253352317959e-05</v>
+        <v>0.002300258260220289</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.77560713281855e-05</v>
+        <v>0.004927261732518673</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.013808650895953e-05</v>
+        <v>0.005512170027941465</v>
       </c>
       <c r="CN2" t="n">
-        <v>6.503138865809888e-05</v>
+        <v>0.003613208886235952</v>
       </c>
       <c r="CO2" t="n">
-        <v>3.863029269268736e-05</v>
+        <v>0.00059257831890136</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0001795603893697262</v>
+        <v>0.004233408719301224</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001862387580331415</v>
+        <v>0.007262402214109898</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.563161564874463e-05</v>
+        <v>0.004445908591151237</v>
       </c>
       <c r="CS2" t="n">
-        <v>9.159448381979018e-05</v>
+        <v>0.001468003494665027</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001614917127881199</v>
+        <v>0.005679672583937645</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0002358146011829376</v>
+        <v>0.002956100273877382</v>
       </c>
       <c r="CV2" t="n">
-        <v>9.56803050939925e-05</v>
+        <v>0.0001919250062201172</v>
       </c>
       <c r="CW2" t="n">
-        <v>8.936782251112163e-06</v>
+        <v>0.003479067934677005</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0001170441173599102</v>
+        <v>0.00199178559705615</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.405769944540225e-05</v>
+        <v>0.0003826686588581651</v>
       </c>
       <c r="CZ2" t="n">
-        <v>4.423499194672331e-05</v>
+        <v>0.0005404283874668181</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.136912669608137e-05</v>
+        <v>0.0002775603206828237</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.814949428080581e-05</v>
+        <v>0.00160993030294776</v>
       </c>
       <c r="DC2" t="n">
-        <v>5.267006054054946e-05</v>
+        <v>0.001772768795490265</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.568094558024313e-05</v>
+        <v>0.003600460477173328</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0002513311337679625</v>
+        <v>0.003850133158266544</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.000121619290439412</v>
+        <v>0.003077454632148147</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0001887940888991579</v>
+        <v>0.003585134167224169</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0003446762566454709</v>
+        <v>0.004228009376674891</v>
       </c>
       <c r="DI2" t="n">
-        <v>7.45807119528763e-05</v>
+        <v>0.00024061618023552</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0002358452911721542</v>
+        <v>0.001390125835314393</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.407212741672993e-05</v>
+        <v>0.002448962535709143</v>
       </c>
       <c r="DL2" t="n">
-        <v>4.399099452712107e-06</v>
+        <v>0.00977378711104393</v>
       </c>
       <c r="DM2" t="n">
-        <v>6.822512659709901e-05</v>
+        <v>0.0004087728448212147</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.538635064614937e-05</v>
+        <v>0.002480305964127183</v>
       </c>
       <c r="DO2" t="n">
-        <v>5.506778961716918e-06</v>
+        <v>0.0006908533396199346</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0001012858410831541</v>
+        <v>0.001427284674718976</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.539100336842239e-05</v>
+        <v>0.002736268565058708</v>
       </c>
       <c r="DR2" t="n">
-        <v>8.568681369069964e-05</v>
+        <v>0.00240408768877387</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0001040969946188852</v>
+        <v>1.559368683956563e-05</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.128431176766753e-05</v>
+        <v>0.0006115087307989597</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.819312693551183e-05</v>
+        <v>0.001422250759787858</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001080163929145783</v>
+        <v>0.005527012050151825</v>
       </c>
       <c r="DW2" t="n">
-        <v>6.751552427886054e-05</v>
+        <v>0.0007240652921609581</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.668389813858084e-05</v>
+        <v>0.008833080530166626</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.794551205122843e-05</v>
+        <v>0.001501248218119144</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.523507984937169e-06</v>
+        <v>0.0003374111838638783</v>
       </c>
       <c r="EA2" t="n">
-        <v>5.196750134928152e-05</v>
+        <v>0.0001868241088232026</v>
       </c>
       <c r="EB2" t="n">
-        <v>4.13786547142081e-05</v>
+        <v>0.004378765821456909</v>
       </c>
       <c r="EC2" t="n">
-        <v>8.078334212768823e-05</v>
+        <v>0.001706305425614119</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001631037739571184</v>
+        <v>0.003831557463854551</v>
       </c>
       <c r="EE2" t="n">
-        <v>4.893468576483428e-05</v>
+        <v>0.003111409489065409</v>
       </c>
       <c r="EF2" t="n">
-        <v>9.533415141049773e-05</v>
+        <v>0.0008955059456638992</v>
       </c>
       <c r="EG2" t="n">
-        <v>4.316521517466754e-05</v>
+        <v>0.001168111572042108</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.550454519223422e-05</v>
+        <v>0.004175703506916761</v>
       </c>
       <c r="EI2" t="n">
-        <v>9.413437510374933e-06</v>
+        <v>0.002558029955253005</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001508687273599207</v>
+        <v>0.001255203504115343</v>
       </c>
       <c r="EK2" t="n">
-        <v>6.758118252037093e-05</v>
+        <v>0.001064015552401543</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.114552626153454e-05</v>
+        <v>0.002066645538434386</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001123940164688975</v>
+        <v>0.002730776555836201</v>
       </c>
       <c r="EN2" t="n">
-        <v>5.486170721269445e-06</v>
+        <v>0.00583824934437871</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.293412247439846e-05</v>
+        <v>0.001252326881513</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.376797758392058e-05</v>
+        <v>0.003386191790923476</v>
       </c>
       <c r="EQ2" t="n">
-        <v>5.022270488552749e-05</v>
+        <v>0.002921825041994452</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.000104623737570364</v>
+        <v>0.00235736882314086</v>
       </c>
       <c r="ES2" t="n">
-        <v>3.379926056368276e-05</v>
+        <v>0.003645251039415598</v>
       </c>
       <c r="ET2" t="n">
-        <v>4.925563553115353e-05</v>
+        <v>0.002866610419005156</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.713650221470743e-05</v>
+        <v>0.001788652152754366</v>
       </c>
       <c r="EV2" t="n">
-        <v>9.333842172054574e-05</v>
+        <v>0.0001412449637427926</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001434887381037697</v>
+        <v>0.002355560194700956</v>
       </c>
       <c r="EX2" t="n">
-        <v>4.199860995868221e-05</v>
+        <v>0.001241073361597955</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.464208708057413e-05</v>
+        <v>0.004099379293620586</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0001030925413942896</v>
+        <v>0.00161367654800415</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.264067683834583e-05</v>
+        <v>0.0006892146775498986</v>
       </c>
       <c r="FB2" t="n">
-        <v>3.223304884159006e-05</v>
+        <v>0.000382789468858391</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.542447509767953e-05</v>
+        <v>0.001177702681161463</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.830904825008474e-05</v>
+        <v>0.001670343335717916</v>
       </c>
       <c r="FE2" t="n">
-        <v>8.053640340222046e-05</v>
+        <v>0.001971426652744412</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.637338184285909e-05</v>
+        <v>0.00393423717468977</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001295867114095017</v>
+        <v>0.0009486942435614765</v>
       </c>
       <c r="FH2" t="n">
-        <v>6.007358388160355e-05</v>
+        <v>0.001628604019060731</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0001304251636611298</v>
+        <v>0.001443251734599471</v>
       </c>
       <c r="FJ2" t="n">
-        <v>8.891289326129481e-06</v>
+        <v>0.001363741117529571</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0001043366137309931</v>
+        <v>0.005436539184302092</v>
       </c>
       <c r="FL2" t="n">
-        <v>5.757598410127684e-05</v>
+        <v>0.0004355862038210034</v>
       </c>
       <c r="FM2" t="n">
-        <v>4.320678272051737e-06</v>
+        <v>7.481678039766848e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>8.549668564228341e-05</v>
+        <v>0.00150955212302506</v>
       </c>
       <c r="FO2" t="n">
-        <v>8.326423267135397e-05</v>
+        <v>0.001099042245186865</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0004013433353975415</v>
+        <v>0.002845840994268656</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3.381260466994718e-05</v>
+        <v>6.025051698088646e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0002169217332266271</v>
+        <v>0.002225721953436732</v>
       </c>
       <c r="FS2" t="n">
-        <v>7.563715917058289e-05</v>
+        <v>0.001422400586307049</v>
       </c>
       <c r="FT2" t="n">
-        <v>7.034594455035403e-05</v>
+        <v>0.004590244498103857</v>
       </c>
       <c r="FU2" t="n">
-        <v>3.551036206772551e-05</v>
+        <v>0.005011183675378561</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0001340304006589577</v>
+        <v>0.0059928884729743</v>
       </c>
       <c r="FW2" t="n">
-        <v>3.67153697879985e-05</v>
+        <v>0.002797897206619382</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001783891057129949</v>
+        <v>0.002586619229987264</v>
       </c>
       <c r="FY2" t="n">
-        <v>8.864238043315709e-05</v>
+        <v>0.002898128237575293</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.250745819765143e-05</v>
+        <v>0.003929711878299713</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.392480332171544e-05</v>
+        <v>0.003220546059310436</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001552057365188375</v>
+        <v>0.003707418218255043</v>
       </c>
       <c r="GC2" t="n">
-        <v>9.454835526412353e-05</v>
+        <v>0.002180218230932951</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001024119192152284</v>
+        <v>0.002641170984134078</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.262085763504729e-05</v>
+        <v>0.002352111041545868</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001500717335147783</v>
+        <v>0.003171676304191351</v>
       </c>
       <c r="GG2" t="n">
-        <v>3.479421138763428e-05</v>
+        <v>0.001659970497712493</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00782611221075058</v>
+        <v>0.002357218414545059</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01378316339105368</v>
+        <v>0.0250789187848568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1190486177802086</v>
+        <v>0.00536264106631279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03262320160865784</v>
+        <v>0.007083365228027105</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0254888329654932</v>
+        <v>0.01080801151692867</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01988910883665085</v>
+        <v>0.004895397461950779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005644557066261768</v>
+        <v>0.01598475128412247</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005280639044940472</v>
+        <v>0.0001562823890708387</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0272414144128561</v>
+        <v>0.0150898415595293</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01089243218302727</v>
+        <v>0.00583379715681076</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003899059724062681</v>
+        <v>0.02556196600198746</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1209349483251572</v>
+        <v>0.003834041533991694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03930654004216194</v>
+        <v>0.005348735488951206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01298013236373663</v>
+        <v>0.01152643281966448</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007071522530168295</v>
+        <v>0.001365152769722044</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01079372130334377</v>
+        <v>0.01146227493882179</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01751820929348469</v>
+        <v>8.402473031310365e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03273781016469002</v>
+        <v>0.01202919147908688</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009072670713067055</v>
+        <v>0.002837816486135125</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01053080521523952</v>
+        <v>0.007131736259907484</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00058010034263134</v>
+        <v>0.0001837912714108825</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002444031182676554</v>
+        <v>0.007116431836038828</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02120519429445267</v>
+        <v>0.01553485821932554</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007422439754009247</v>
+        <v>0.006461964920163155</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.008520212024450302</v>
+        <v>0.002598225604742765</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.008931827731430531</v>
+        <v>0.00124713743571192</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004844324197620153</v>
+        <v>0.0002804309478960931</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.006401303689926863</v>
+        <v>0.005346022546291351</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.006647936534136534</v>
+        <v>0.003583833109587431</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.007956482470035553</v>
+        <v>0.009246004745364189</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0169855784624815</v>
+        <v>0.003349423874169588</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02078335918486118</v>
+        <v>0.00182342273183167</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.009829199872910976</v>
+        <v>0.003105364507064223</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.002318994607776403</v>
+        <v>8.75664409250021e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.005242943298071623</v>
+        <v>0.005876821931451559</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.02493645437061787</v>
+        <v>0.002975451527163386</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004056808538734913</v>
+        <v>0.004960902500897646</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002630673814564943</v>
+        <v>0.0004017857136204839</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02299439534544945</v>
+        <v>3.120362089248374e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.005676751956343651</v>
+        <v>0.001566234626807272</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01172265503555536</v>
+        <v>0.0003143702051602304</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01298158522695303</v>
+        <v>0.001769895083270967</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004714719951152802</v>
+        <v>0.001452010939829051</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.00158190110232681</v>
+        <v>0.002228434896096587</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.001277198549360037</v>
+        <v>0.002077797893434763</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.003761531319469213</v>
+        <v>0.004463003948330879</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.005694047082215548</v>
+        <v>0.01510955952107906</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05416659638285637</v>
+        <v>0.006590314675122499</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.00471336767077446</v>
+        <v>0.01128195598721504</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.005203559994697571</v>
+        <v>0.004698439966887236</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01464400719851255</v>
+        <v>0.004539478570222855</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0136195607483387</v>
+        <v>0.01473221648484468</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02383348904550076</v>
+        <v>0.0003427015617489815</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.02028630301356316</v>
+        <v>0.00833355076611042</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0009034858085215092</v>
+        <v>0.0007239587139338255</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0006407854962162673</v>
+        <v>0.01532383635640144</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.03277726471424103</v>
+        <v>0.008715890347957611</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01955083198845387</v>
+        <v>0.0006425746250897646</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0271319318562746</v>
+        <v>0.00204737507738173</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.008215331472456455</v>
+        <v>0.004817122593522072</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.007816808298230171</v>
+        <v>0.001738902181386948</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01063784025609493</v>
+        <v>0.002581567037850618</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01570338942110538</v>
+        <v>9.35862772166729e-07</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.004596834070980549</v>
+        <v>0.0009721911046653986</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.003700189758092165</v>
+        <v>0.000107677944470197</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02714692801237106</v>
+        <v>0.00431261770427227</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.003905331017449498</v>
+        <v>0.003318753559142351</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02051530405879021</v>
+        <v>0.01658634841442108</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.002357943914830685</v>
+        <v>0.004227907862514257</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01191975362598896</v>
+        <v>0.00155238201841712</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004666352644562721</v>
+        <v>0.01313728280365467</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.006163321901112795</v>
+        <v>0.0005717701860703528</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.001968187279999256</v>
+        <v>0.001790022011846304</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.006424742750823498</v>
+        <v>0.003072956576943398</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.02971533499658108</v>
+        <v>0.003459354862570763</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01123911701142788</v>
+        <v>0.008691543713212013</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0006530489772558212</v>
+        <v>0.006812163628637791</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.02250239253044128</v>
+        <v>0.001204916043207049</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01419229619204998</v>
+        <v>0.00818986352533102</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0108187273144722</v>
+        <v>0.007404533214867115</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.001151097007095814</v>
+        <v>0.005489258095622063</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.001473057782277465</v>
+        <v>0.001103441580198705</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01282678823918104</v>
+        <v>0.005254806485027075</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02358447015285492</v>
+        <v>0.0004172497137915343</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00576446671038866</v>
+        <v>0.00253288634121418</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001080154906958342</v>
+        <v>0.00222875690087676</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.008735109120607376</v>
+        <v>0.001188398920930922</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.01057372055947781</v>
+        <v>0.001864114892669022</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.004267027601599693</v>
+        <v>0.001847096835263073</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.004886290524154902</v>
+        <v>0.0007103553507477045</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.003130441997200251</v>
+        <v>0.006660892628133297</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01625320501625538</v>
+        <v>0.01017860975116491</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001021840842440724</v>
+        <v>0.001065725111402571</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01143739931285381</v>
+        <v>0.01283121295273304</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.007373842410743237</v>
+        <v>0.01596505753695965</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001175849698483944</v>
+        <v>0.000385162653401494</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.004002991132438183</v>
+        <v>0.005137971602380276</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0004819714813493192</v>
+        <v>0.003064239397644997</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01840159669518471</v>
+        <v>0.006887761875987053</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.001445419620722532</v>
+        <v>0.001614891225472093</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01012720912694931</v>
+        <v>0.003980584442615509</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02290121279656887</v>
+        <v>0.0009968032827600837</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.00437038391828537</v>
+        <v>0.0006032936507835984</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005130941048264503</v>
+        <v>0.0002328143746126443</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.007346758153289557</v>
+        <v>0.002494040410965681</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.009317361749708652</v>
+        <v>0.00236907135695219</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.003997423220425844</v>
+        <v>0.003839151933789253</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.00582869304344058</v>
+        <v>0.000599678372964263</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003267238382250071</v>
+        <v>0.006974185816943645</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.02776611968874931</v>
+        <v>0.001345352036878467</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.003817729186266661</v>
+        <v>0.00361899146810174</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0009836083045229316</v>
+        <v>0.01104521565139294</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01127044856548309</v>
+        <v>0.005511103197932243</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.007518046535551548</v>
+        <v>0.001342928037047386</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01655523106455803</v>
+        <v>0.001893692533485591</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.00691164517775178</v>
+        <v>0.005267403088510036</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00254849623888731</v>
+        <v>0.008537194691598415</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001202218001708388</v>
+        <v>0.006371427793055773</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01926975324749947</v>
+        <v>0.003393546910956502</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0006748572923243046</v>
+        <v>0.004275928251445293</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.005837962031364441</v>
+        <v>0.001216687494888902</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.003524327883496881</v>
+        <v>0.001400416949763894</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.008887525647878647</v>
+        <v>0.001499950885772705</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.01721844635903835</v>
+        <v>0.0003385883173905313</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0134892463684082</v>
+        <v>0.0022414515260607</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.002388199791312218</v>
+        <v>0.007102330215275288</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.003972947131842375</v>
+        <v>0.0007177777588367462</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.00784208532422781</v>
+        <v>0.01072590239346027</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01042882353067398</v>
+        <v>0.002109428867697716</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0006232357118278742</v>
+        <v>0.005511300172656775</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0001773061812855303</v>
+        <v>0.001804794184863567</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.002226967830210924</v>
+        <v>0.003009157488122582</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.007296024356037378</v>
+        <v>0.002005710965022445</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.000926976790651679</v>
+        <v>0.002634749747812748</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0008975198143161833</v>
+        <v>0.003198338206857443</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.00733119435608387</v>
+        <v>0.000111449473479297</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.009070144966244698</v>
+        <v>0.003737647086381912</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02433845028281212</v>
+        <v>0.0009207574184983969</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01429695263504982</v>
+        <v>0.001188983558677137</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0025913140270859</v>
+        <v>0.001171254785731435</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02742720395326614</v>
+        <v>0.0008374840253964067</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.005498363170772791</v>
+        <v>0.006340098567306995</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.005431211087852716</v>
+        <v>0.000141074531711638</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.004417895805090666</v>
+        <v>0.0006771682528778911</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.00213232240639627</v>
+        <v>0.005018319468945265</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.006678208243101835</v>
+        <v>0.0002580941654741764</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0051588024944067</v>
+        <v>0.002177834045141935</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.00808974914252758</v>
+        <v>0.0008517643436789513</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0001501302467659116</v>
+        <v>0.0009176675230264664</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01334418728947639</v>
+        <v>0.007799354381859303</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.009631389752030373</v>
+        <v>0.002422762103378773</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.006136788055300713</v>
+        <v>0.0007931051659397781</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01452242210507393</v>
+        <v>0.002367472276091576</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.003978705033659935</v>
+        <v>0.002537879627197981</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.007978077977895737</v>
+        <v>0.005002467893064022</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.022513248026371</v>
+        <v>3.111595287919044e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.006686391774564981</v>
+        <v>0.002744076540693641</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.003532079979777336</v>
+        <v>0.0003715840866789222</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.003679876215755939</v>
+        <v>0.0005929061444476247</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.007887168787419796</v>
+        <v>0.00120706157758832</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001784466789104044</v>
+        <v>0.003739482257515192</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.006134925410151482</v>
+        <v>0.0006824582233093679</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003005583537742496</v>
+        <v>0.003634133609011769</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01416925806552172</v>
+        <v>0.003670235630124807</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.02129102312028408</v>
+        <v>0.001648747129365802</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002324100118130445</v>
+        <v>0.0004116702475585043</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01062253024429083</v>
+        <v>0.0009772115154191852</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01699533686041832</v>
+        <v>0.008165465667843819</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.004615108482539654</v>
+        <v>0.0001528889988549054</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002112277783453465</v>
+        <v>0.003831215435639024</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.004465899430215359</v>
+        <v>0.007693709339946508</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.007782919332385063</v>
+        <v>0.001540385186672211</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.02978204004466534</v>
+        <v>0.005277904681861401</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01165732368826866</v>
+        <v>0.003749845549464226</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006378527265042067</v>
+        <v>0.002586295362561941</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.004879876971244812</v>
+        <v>0.002317422302439809</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01590185798704624</v>
+        <v>0.003587067360058427</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.003524892032146454</v>
+        <v>0.0003515697026159614</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.008184071630239487</v>
+        <v>0.005188064184039831</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01090193260461092</v>
+        <v>0.005189147777855396</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.005368473008275032</v>
+        <v>0.00530257448554039</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.002862310037016869</v>
+        <v>0.0009483658941462636</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01330345682799816</v>
+        <v>0.006085477769374847</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.001713345758616924</v>
+        <v>0.003381658345460892</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.01670419983565807</v>
+        <v>0.0053829001262784</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.003830751869827509</v>
+        <v>0.003150199539959431</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.01021464262157679</v>
+        <v>0.006712780799716711</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.005333914421498775</v>
+        <v>0.0140641238540411</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.00508751068264246</v>
+        <v>0.002385326661169529</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.018154859542847</v>
+        <v>0.0008397030178457499</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09652787446975708</v>
+        <v>0.04116532951593399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9978823065757751</v>
+        <v>0.002962269820272923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6590129137039185</v>
+        <v>0.02461879327893257</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7232269048690796</v>
+        <v>0.006922326982021332</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01585520058870316</v>
+        <v>0.003919671289622784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2356469035148621</v>
+        <v>0.005468917079269886</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1722091287374496</v>
+        <v>0.006671834737062454</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3598315417766571</v>
+        <v>0.00748015008866787</v>
       </c>
       <c r="J7" t="n">
-        <v>1.093253493309021</v>
+        <v>0.001922374125570059</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03343490883708</v>
+        <v>0.03401608392596245</v>
       </c>
       <c r="L7" t="n">
-        <v>1.058750033378601</v>
+        <v>0.001937785651534796</v>
       </c>
       <c r="M7" t="n">
-        <v>0.565693199634552</v>
+        <v>0.0231635682284832</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5098804831504822</v>
+        <v>0.01061009801924229</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05764022469520569</v>
+        <v>0.005098205059766769</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1582763195037842</v>
+        <v>0.001194368931464851</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4482604265213013</v>
+        <v>0.004865713883191347</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4984689652919769</v>
+        <v>0.000659802695736289</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07013067603111267</v>
+        <v>0.0004088824498467147</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2612164616584778</v>
+        <v>0.009109055623412132</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04441619664430618</v>
+        <v>0.003320876508951187</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02425378933548927</v>
+        <v>0.0006857002736069262</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04398505389690399</v>
+        <v>0.005278480239212513</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0173584409058094</v>
+        <v>0.008309447206556797</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01851082593202591</v>
+        <v>0.004429657012224197</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1046473011374474</v>
+        <v>0.002033688593655825</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03809669613838196</v>
+        <v>0.004539903253316879</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1025701761245728</v>
+        <v>0.00038527837023139</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02071504294872284</v>
+        <v>0.008512599393725395</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.06761768460273743</v>
+        <v>0.001164115383289754</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2227549701929092</v>
+        <v>0.001166247762739658</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03412912786006927</v>
+        <v>0.003384861862286925</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03045783378183842</v>
+        <v>0.00537502346560359</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1078888401389122</v>
+        <v>0.003681193571537733</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.09308559447526932</v>
+        <v>0.005069904029369354</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1749481409788132</v>
+        <v>0.001118947635404766</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2060740143060684</v>
+        <v>0.002143842866644263</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3544802963733673</v>
+        <v>0.003092329017817974</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1048979610204697</v>
+        <v>0.0008379297214560211</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1362844109535217</v>
+        <v>0.0008110083290375769</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001077963970601559</v>
+        <v>0.003457758110016584</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02615603245794773</v>
+        <v>0.003035231027752161</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0007216744124889374</v>
+        <v>0.004486724268645048</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.175679624080658</v>
+        <v>0.003460749750956893</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.03295198082923889</v>
+        <v>0.0001770675007719547</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4968276023864746</v>
+        <v>0.003486268687993288</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3557676374912262</v>
+        <v>0.02501200325787067</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.6659947633743286</v>
+        <v>0.003054838394746184</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.03451729938387871</v>
+        <v>0.003681904170662165</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0146895544603467</v>
+        <v>0.002650921931490302</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2770540118217468</v>
+        <v>0.004961167462170124</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.3218277096748352</v>
+        <v>0.001915266737341881</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.2113780677318573</v>
+        <v>0.007776396349072456</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.06038109585642815</v>
+        <v>0.002824535127729177</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0780700147151947</v>
+        <v>0.003033175598829985</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01179322600364685</v>
+        <v>0.006887911818921566</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.2281338274478912</v>
+        <v>0.009861803613603115</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.3492906093597412</v>
+        <v>0.004502235911786556</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.4954731464385986</v>
+        <v>0.01280563976615667</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02930868417024612</v>
+        <v>0.0005837989738211036</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.1547099649906158</v>
+        <v>0.002071660943329334</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.3850533664226532</v>
+        <v>0.005671077873557806</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.09975237399339676</v>
+        <v>0.0001632688654353842</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1328985691070557</v>
+        <v>0.004186626058071852</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1946021467447281</v>
+        <v>0.0005812245653942227</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.2808459401130676</v>
+        <v>0.001802150742150843</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001996088773012161</v>
+        <v>0.0006760418764315546</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1776511073112488</v>
+        <v>0.006643841043114662</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.2101322412490845</v>
+        <v>0.006865056231617928</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.002917909994721413</v>
+        <v>0.0005428852746263146</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.1481195837259293</v>
+        <v>0.005871315486729145</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.003217763733118773</v>
+        <v>0.003335342044010758</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.4845858812332153</v>
+        <v>0.00117089506238699</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.2057976573705673</v>
+        <v>0.01374298147857189</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.2516911029815674</v>
+        <v>0.002038429956883192</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1545249670743942</v>
+        <v>0.00189185980707407</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1964887827634811</v>
+        <v>0.004435781389474869</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.2441985458135605</v>
+        <v>0.003867164952680469</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.08786569535732269</v>
+        <v>0.002399120945483446</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.1903955042362213</v>
+        <v>0.002175802597776055</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.04830571264028549</v>
+        <v>0.001463020220398903</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.2290136963129044</v>
+        <v>0.0007985633565112948</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.2724781334400177</v>
+        <v>0.00768715888261795</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.1763569116592407</v>
+        <v>0.001642914954572916</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.08126016706228256</v>
+        <v>0.002259455155581236</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.1413324028253555</v>
+        <v>0.002278886269778013</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01391398161649704</v>
+        <v>0.0004760377341881394</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.06543613225221634</v>
+        <v>0.001205498818308115</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.04532544687390327</v>
+        <v>0.0007500046631321311</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.04044108837842941</v>
+        <v>0.001126948511227965</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.04102994501590729</v>
+        <v>0.007731138728559017</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.06381926685571671</v>
+        <v>0.001744172303006053</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.01782389916479588</v>
+        <v>0.0006874140235595405</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.03467047214508057</v>
+        <v>0.009519370272755623</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2468340992927551</v>
+        <v>0.008629569783806801</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.1695621162652969</v>
+        <v>0.005188599228858948</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.3131902813911438</v>
+        <v>0.007584713399410248</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.1638210564851761</v>
+        <v>0.00729651004076004</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1371636092662811</v>
+        <v>0.001162048429250717</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.1916020512580872</v>
+        <v>0.0003726661088876426</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.2670620083808899</v>
+        <v>0.006589555181562901</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.1779101938009262</v>
+        <v>0.003218553960323334</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.03314909338951111</v>
+        <v>0.003939865622669458</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.2419797480106354</v>
+        <v>0.002306799404323101</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01602310128509998</v>
+        <v>0.001138261053711176</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.06656292825937271</v>
+        <v>0.002276917221024632</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.02901949174702168</v>
+        <v>0.0001559761585667729</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.04252709820866585</v>
+        <v>0.0007368024671450257</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1348210722208023</v>
+        <v>0.002269024727866054</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.7064547538757324</v>
+        <v>0.01160058192908764</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.3479830026626587</v>
+        <v>0.003703270573168993</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.2157062590122223</v>
+        <v>0.004945200402289629</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.07799883186817169</v>
+        <v>0.004556517116725445</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.1052310839295387</v>
+        <v>0.00024042883887887</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.1320372223854065</v>
+        <v>0.001856960239820182</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.2126068472862244</v>
+        <v>0.0002645181957632303</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.1775589287281036</v>
+        <v>0.003463695757091045</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1232483014464378</v>
+        <v>0.001105025177821517</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.284480482339859</v>
+        <v>0.002491693245247006</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.06733980029821396</v>
+        <v>0.0003231113369110972</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.02415859512984753</v>
+        <v>0.0006019981228746474</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0406854934990406</v>
+        <v>0.004642530810087919</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.2061330378055573</v>
+        <v>0.002703559352084994</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.02611230313777924</v>
+        <v>0.0005654714768752456</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1306755542755127</v>
+        <v>0.003691761055961251</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.06952858716249466</v>
+        <v>0.001883123535662889</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.01202857494354248</v>
+        <v>0.0008640199666842818</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.08992414921522141</v>
+        <v>0.00223112222738564</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.05529104918241501</v>
+        <v>0.005950434133410454</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.02167868986725807</v>
+        <v>0.00186916021630168</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.2742549479007721</v>
+        <v>0.001876098569482565</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.1293613314628601</v>
+        <v>0.0005466491566039622</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0290650874376297</v>
+        <v>0.001723230117931962</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.1218707710504532</v>
+        <v>0.0009652371518313885</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.1494236290454865</v>
+        <v>0.0003726808354258537</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.3230139017105103</v>
+        <v>0.001975164515897632</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.1506627798080444</v>
+        <v>0.004644209053367376</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.1626871824264526</v>
+        <v>0.003090775804594159</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.1006858497858047</v>
+        <v>0.002790187252685428</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1165445223450661</v>
+        <v>0.003614593530073762</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.2988964915275574</v>
+        <v>0.002128514694049954</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.02661309577524662</v>
+        <v>0.001669031567871571</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.03975288569927216</v>
+        <v>0.0008712008129805326</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.08225231617689133</v>
+        <v>0.001083414768800139</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.02616800554096699</v>
+        <v>0.001187494955956936</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.2684908509254456</v>
+        <v>0.007049338426440954</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.1563669145107269</v>
+        <v>0.004396565724164248</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.06466169655323029</v>
+        <v>0.002645475789904594</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.2676655054092407</v>
+        <v>0.0007842757040634751</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.1994718164205551</v>
+        <v>0.001877750037238002</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.2123536020517349</v>
+        <v>0.004335667937994003</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.1733725219964981</v>
+        <v>0.00231289304792881</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.06073106080293655</v>
+        <v>0.0007519690552726388</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.2201231867074966</v>
+        <v>0.0003996418963652104</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.2218785434961319</v>
+        <v>0.007218373473733664</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.189456894993782</v>
+        <v>0.001155382720753551</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.05712669342756271</v>
+        <v>0.003446134738624096</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1879866123199463</v>
+        <v>0.003121385583654046</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.08042299747467041</v>
+        <v>0.002081087557598948</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.07024688273668289</v>
+        <v>0.001508462009951472</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.09106495231389999</v>
+        <v>7.240351988002658e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.03784110769629478</v>
+        <v>0.00133050512522459</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.1895697116851807</v>
+        <v>0.0003903991309925914</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.09737110882997513</v>
+        <v>0.0004818849265575409</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.09048208594322205</v>
+        <v>0.005525819957256317</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.09932313859462738</v>
+        <v>0.002338521648198366</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1409254968166351</v>
+        <v>0.0002753951121121645</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.1513177305459976</v>
+        <v>0.001807180466130376</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.06363308429718018</v>
+        <v>1.896807225421071e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.151480108499527</v>
+        <v>0.0009960840689018369</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.2103130668401718</v>
+        <v>0.001243320526555181</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.08555256575345993</v>
+        <v>0.001363040413707495</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.6364297270774841</v>
+        <v>0.004037275910377502</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.008943900465965271</v>
+        <v>0.004112886730581522</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.4951986968517303</v>
+        <v>0.0008201852906495333</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.2007192820310593</v>
+        <v>0.002164495876058936</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.01561873778700829</v>
+        <v>0.001150249503552914</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.01604690589010715</v>
+        <v>0.001522153150290251</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.1944454908370972</v>
+        <v>0.00126672419719398</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.07591553777456284</v>
+        <v>0.005512621253728867</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01016610860824585</v>
+        <v>0.004047730471938848</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.1867471039295197</v>
+        <v>0.001946828560903668</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.03046341985464096</v>
+        <v>0.001108104828745127</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.002668065950274467</v>
+        <v>0.002358084777370095</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.413384348154068</v>
+        <v>0.002380826976150274</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.3143898248672485</v>
+        <v>0.007760751061141491</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02479036152362823</v>
+        <v>0.01226278021931648</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.1793947070837021</v>
+        <v>9.58458986133337e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.05963443964719772</v>
+        <v>0.004507705569267273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003755634883418679</v>
+        <v>0.0005279644974507391</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007946389727294445</v>
+        <v>0.004641965962946415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07262877374887466</v>
+        <v>0.0003719680826179683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001639136229641736</v>
+        <v>0.002615858800709248</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04440103471279144</v>
+        <v>0.0006411425420083106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02389737218618393</v>
+        <v>0.003049335442483425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00542139308527112</v>
+        <v>0.0002275373262818903</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008935236372053623</v>
+        <v>0.001128808595240116</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02363737486302853</v>
+        <v>0.0001983977854251862</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002419530879706144</v>
+        <v>0.001317000482231379</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001706991693936288</v>
+        <v>0.003634718712419271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07168190181255341</v>
+        <v>7.877628377173096e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001402303343638778</v>
+        <v>0.002270909026265144</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02890015579760075</v>
+        <v>0.0005676209693774581</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01306367944926023</v>
+        <v>0.003294663038104773</v>
       </c>
       <c r="P8" t="n">
-        <v>0.007941599935293198</v>
+        <v>3.552119596861303e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007609856314957142</v>
+        <v>2.013699850067496e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02308271639049053</v>
+        <v>0.0001628011232241988</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003064088523387909</v>
+        <v>0.0003434094251133502</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01216061785817146</v>
+        <v>0.0005968123441562057</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004945313557982445</v>
+        <v>0.0002793626626953483</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005007471423596144</v>
+        <v>0.0004589718882925808</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005788281094282866</v>
+        <v>0.0003170397831127048</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0006291174795478582</v>
+        <v>0.0002529027406126261</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005375938955694437</v>
+        <v>0.0005559294950217009</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004098194185644388</v>
+        <v>0.0003816807002294809</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001552949892356992</v>
+        <v>0.0005161968292668462</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.00633673369884491</v>
+        <v>4.111049929633737e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.002872777637094259</v>
+        <v>0.0004669170302804559</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01261866185814142</v>
+        <v>0.0001381863548886031</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002085052663460374</v>
+        <v>9.953335393220186e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.003878754563629627</v>
+        <v>0.0002574693644419312</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.445279773790389e-05</v>
+        <v>0.0001129430893342942</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.001048639533109963</v>
+        <v>0.000292125012492761</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0007558045326732099</v>
+        <v>0.0003471757809165865</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.008197960443794727</v>
+        <v>0.0001778975420165807</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.004640064667910337</v>
+        <v>0.0003876706468872726</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004157827235758305</v>
+        <v>0.0007073576562106609</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.01465611159801483</v>
+        <v>0.0002378243370912969</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001173673197627068</v>
+        <v>0.000162358905072324</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.004151328466832638</v>
+        <v>0.0002625499619171023</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0006493697292171419</v>
+        <v>0.0006144003127701581</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.001036408822983503</v>
+        <v>4.730880027636886e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.004540290217846632</v>
+        <v>0.0002984227903652936</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0009333544876426458</v>
+        <v>0.0006464352481998503</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.002170958556234837</v>
+        <v>0.0002591327647678554</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004441524855792522</v>
+        <v>0.002803265582770109</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.02882809564471245</v>
+        <v>0.0002589748473837972</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0002271225966978818</v>
+        <v>0.000155842921230942</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.00831160694360733</v>
+        <v>0.0001150950120063499</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.00378050422295928</v>
+        <v>0.001721942215226591</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.002317247912287712</v>
+        <v>1.067767152562737e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.001644034637138247</v>
+        <v>0.0008120027487166226</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.003916815854609013</v>
+        <v>0.0009830347262322903</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.003204050241038203</v>
+        <v>0.0006582615897059441</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0007521455409005284</v>
+        <v>0.0009157107560895383</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02041428722441196</v>
+        <v>0.001236689509823918</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.001403804169967771</v>
+        <v>0.0008712075650691986</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0210562814027071</v>
+        <v>0.001286422717384994</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.00784451887011528</v>
+        <v>0.0008727812673896551</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0001038212794810534</v>
+        <v>0.0003313567722216249</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.007512332405894995</v>
+        <v>0.0009454297251068056</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.01765673235058784</v>
+        <v>4.870137490797788e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002907260553911328</v>
+        <v>4.6958914026618e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0004670626949518919</v>
+        <v>0.0005269658286124468</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01732437498867512</v>
+        <v>0.0005964016891084611</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0006492059910669923</v>
+        <v>0.0004220058035571128</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.008356907404959202</v>
+        <v>0.0001773686963133514</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001949909841641784</v>
+        <v>4.69925143988803e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.005298849660903215</v>
+        <v>0.0005405209958553314</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.005904627032577991</v>
+        <v>2.732628490775824e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001093989005312324</v>
+        <v>4.164405982010067e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.004327787086367607</v>
+        <v>0.0002253556885989383</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.004998504649847746</v>
+        <v>0.001470269518904388</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.02222359552979469</v>
+        <v>0.0006944254273548722</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.002317082136869431</v>
+        <v>0.0005500702536664903</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01482599973678589</v>
+        <v>0.0004479584167711437</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.01030445471405983</v>
+        <v>0.0005657218280248344</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0001099559012800455</v>
+        <v>0.000354098214302212</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003096233122050762</v>
+        <v>0.0003815007512457669</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.001496581477113068</v>
+        <v>0.0007281802245415747</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001841837540268898</v>
+        <v>3.982525231549516e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.004613193683326244</v>
+        <v>0.0007451214478351176</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.013392667286098</v>
+        <v>0.0006042708409950137</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.001208221423439682</v>
+        <v>0.0003969973186030984</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.007836724631488323</v>
+        <v>0.0003180036146659404</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.004792322870343924</v>
+        <v>0.0005370143335312605</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.002100106794387102</v>
+        <v>0.000283469504211098</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.000446393882157281</v>
+        <v>0.0001923406380228698</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.00294606015086174</v>
+        <v>0.0004067411937285215</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.004991914145648479</v>
+        <v>0.0004948102287016809</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01255801040679216</v>
+        <v>1.119144872063771e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0002581111621111631</v>
+        <v>0.0002590435615275055</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0005605649203062057</v>
+        <v>0.0005508318427018821</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.005290329921990633</v>
+        <v>2.421629687887616e-05</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01200951263308525</v>
+        <v>3.445304173510522e-06</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0008770714048296213</v>
+        <v>0.0006992629496380687</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.004804745782166719</v>
+        <v>0.0006437019910663366</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002996287308633327</v>
+        <v>7.533024472650141e-05</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.002392053604125977</v>
+        <v>2.918945392593741e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.004418067634105682</v>
+        <v>0.0006823812727816403</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01422266196459532</v>
+        <v>0.0005811474402435124</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.00205656886100769</v>
+        <v>0.0006029350915923715</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01071071531623602</v>
+        <v>0.0002959035628009588</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.004659862257540226</v>
+        <v>0.0005920544499531388</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.002298594219610095</v>
+        <v>0.0002629442315082997</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.001169896917417645</v>
+        <v>0.0004464432131499052</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.003453510347753763</v>
+        <v>0.0002790909493342042</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.000964587670750916</v>
+        <v>0.0004085146065335721</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.007890051230788231</v>
+        <v>0.0006083043990656734</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.007679992355406284</v>
+        <v>0.0001707381306914613</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.003720190841704607</v>
+        <v>0.001560425036586821</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.004502312280237675</v>
+        <v>0.0002225122007075697</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.00174919911660254</v>
+        <v>0.0002002742403419688</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.005491922609508038</v>
+        <v>0.0005309757543727756</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.004930276423692703</v>
+        <v>0.0006492817774415016</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.002302914392203093</v>
+        <v>0.0002684684586711228</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001262306468561292</v>
+        <v>9.653418965172023e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.007166141644120216</v>
+        <v>5.149026765138842e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.002530370373278856</v>
+        <v>0.0003918933216482401</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.004260291811078787</v>
+        <v>0.0004205965669825673</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.001247596344910562</v>
+        <v>0.0001808057131711394</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.002704088110476732</v>
+        <v>2.803131064865738e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0008778533665463328</v>
+        <v>0.0002222053444711491</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.002410093322396278</v>
+        <v>3.183255466865376e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0002256865554954857</v>
+        <v>0.0006480683805420995</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001901725772768259</v>
+        <v>0.0001726077753119171</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0008774842717684805</v>
+        <v>0.0003862614976242185</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.008459604345262051</v>
+        <v>0.0006986494990997016</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.005988608580082655</v>
+        <v>0.00015686520782765</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.007098398171365261</v>
+        <v>0.0001497291814303026</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.001752189127728343</v>
+        <v>0.0003117186715826392</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.002037398749962449</v>
+        <v>4.622715641744435e-05</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0004326388007029891</v>
+        <v>0.0002148611820302904</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.006008027587085962</v>
+        <v>3.763575659831986e-05</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.00269413529895246</v>
+        <v>0.000277186743915081</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.006880227476358414</v>
+        <v>0.0005623374017886817</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.01618945598602295</v>
+        <v>0.0004347270005382597</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002817302942276001</v>
+        <v>6.053844117559493e-05</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.007703350856900215</v>
+        <v>2.223518822574988e-05</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01372223068028688</v>
+        <v>0.000432371161878109</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001962062669917941</v>
+        <v>0.0004524853720795363</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.003990684635937214</v>
+        <v>6.50214496999979e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.002948646200820804</v>
+        <v>0.0001109620206989348</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.003179370425641537</v>
+        <v>3.671050944831222e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.004838806577026844</v>
+        <v>0.0003276235074736178</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.008972937241196632</v>
+        <v>0.0006463825120590627</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.004320961888879538</v>
+        <v>0.0003645308897830546</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.004659994505345821</v>
+        <v>0.0004280184220988303</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.00147544511128217</v>
+        <v>0.0005477269296534359</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.005300483200699091</v>
+        <v>0.0005756999016739428</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0004946958506479859</v>
+        <v>0.0007689045160077512</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.005834249313920736</v>
+        <v>1.340011658612639e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.003947598859667778</v>
+        <v>7.810499664628878e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003141782246530056</v>
+        <v>0.0006603148067370057</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01429273374378681</v>
+        <v>0.000463963981019333</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0005462168483063579</v>
+        <v>0.0004893958102911711</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.009186118841171265</v>
+        <v>0.0003576381714083254</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.001929396064952016</v>
+        <v>0.0004751897940877825</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.001678052358329296</v>
+        <v>0.0004471491847652942</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.002185883698984981</v>
+        <v>0.0002757795446086675</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.003489148570224643</v>
+        <v>0.0004557870561257005</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.002851584926247597</v>
+        <v>0.0001342295145150274</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.00641623605042696</v>
+        <v>0.0002936063974630088</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.008734520524740219</v>
+        <v>0.0005689691170118749</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01483812183141708</v>
+        <v>0.0007776783313602209</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01039432920515537</v>
+        <v>0.0002000446256715804</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0008779665222391486</v>
+        <v>0.0004201097181066871</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0001883176737464964</v>
+        <v>0.0002619382576085627</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001148157054558396</v>
+        <v>0.0001811681722756475</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.002507551107555628</v>
+        <v>0.0003445346374064684</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0003949259407818317</v>
+        <v>0.0001638571120565757</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.02379341050982475</v>
+        <v>0.0008518734248355031</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01163957454264164</v>
+        <v>0.0004043095686938614</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.00327292550355196</v>
+        <v>0.0007402619812637568</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.008988863788545132</v>
+        <v>0.0006607837276533246</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.006124552804976702</v>
+        <v>0.0003527514054439962</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0003951817634515464</v>
+        <v>0.0004435709561221302</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.002483899472281337</v>
+        <v>0.0002555041864980012</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.002792860614135861</v>
+        <v>6.323309207800776e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.002422893419861794</v>
+        <v>0.0008897926891222596</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.007255141623318195</v>
+        <v>0.0001447375252610072</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.008349118754267693</v>
+        <v>0.0001152881668531336</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.00156925548799336</v>
+        <v>0.0001756677665980533</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.01130546815693378</v>
+        <v>0.0002072721108561382</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.007666063494980335</v>
+        <v>0.0004259771085344255</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.001122829155065119</v>
+        <v>0.002173937857151031</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.005046098958700895</v>
+        <v>8.270973921753466e-06</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002155119553208351</v>
+        <v>0.0003575239679776132</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.937963290605694e-05</v>
+        <v>0.5047942399978638</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000124618032714352</v>
+        <v>0.7496424317359924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00351098645478487</v>
+        <v>0.03613877296447754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004609091556631029</v>
+        <v>0.1561054140329361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002339760540053248</v>
+        <v>0.3249167501926422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009738646331243217</v>
+        <v>0.0140921613201499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0007167977164499462</v>
+        <v>0.1422117203474045</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006854707607999444</v>
+        <v>1.113240122795105</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001216114615090191</v>
+        <v>0.1645239442586899</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002003178233280778</v>
+        <v>0.4269214570522308</v>
       </c>
       <c r="K10" t="n">
-        <v>9.476477862335742e-05</v>
+        <v>0.4793554842472076</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00402109045535326</v>
+        <v>0.1029751300811768</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0005187796195968986</v>
+        <v>0.02499586343765259</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001201691571623087</v>
+        <v>0.469526618719101</v>
       </c>
       <c r="O10" t="n">
-        <v>5.324400990502909e-05</v>
+        <v>0.001066615805029869</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0009298460208810866</v>
+        <v>0.04942452907562256</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0004058789636474103</v>
+        <v>1.276350617408752</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0004878939944319427</v>
+        <v>0.3319461643695831</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0004088472342118621</v>
+        <v>0.1139047220349312</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0004727858758997172</v>
+        <v>0.240998849272728</v>
       </c>
       <c r="U10" t="n">
-        <v>1.801201688067522e-05</v>
+        <v>0.02180877886712551</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0002639551239553839</v>
+        <v>0.1088759452104568</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0002384845429332927</v>
+        <v>0.2675153911113739</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0001871585263870656</v>
+        <v>0.1306336522102356</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0001158633240265772</v>
+        <v>0.02346836775541306</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0004456139868125319</v>
+        <v>0.1284819692373276</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0006043831235729158</v>
+        <v>0.05722158402204514</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0003917457652278244</v>
+        <v>0.09100206196308136</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0006737904623150826</v>
+        <v>0.3262822926044464</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0004499669885262847</v>
+        <v>0.07301381230354309</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001736622798489407</v>
+        <v>0.1626662760972977</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0001200747865368612</v>
+        <v>0.1520562171936035</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0003609003324527293</v>
+        <v>0.04425539448857307</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.01090027380269e-06</v>
+        <v>0.09761732071638107</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0008107160683721304</v>
+        <v>0.3074899613857269</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0003799177065957338</v>
+        <v>0.01654454879462719</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.12305058084894e-05</v>
+        <v>0.2580253481864929</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.000430363550549373</v>
+        <v>0.07614011317491531</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0005775492172688246</v>
+        <v>0.001968229189515114</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0002401611127424985</v>
+        <v>0.01295616291463375</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0005254509160295129</v>
+        <v>0.009712491184473038</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0004178094095550478</v>
+        <v>0.04028089717030525</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001741438754834235</v>
+        <v>0.1047758758068085</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0001453766890335828</v>
+        <v>0.2267096638679504</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0003968666715081781</v>
+        <v>0.09208662807941437</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0001332723622908816</v>
+        <v>0.2140049636363983</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0008367586997337639</v>
+        <v>1.005555987358093</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001265382627025247</v>
+        <v>0.1989931017160416</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0003571189008653164</v>
+        <v>0.3539938926696777</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0004922413500025868</v>
+        <v>0.3910732269287109</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0007759110885672271</v>
+        <v>0.06311778724193573</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0001390214747516438</v>
+        <v>0.2551296055316925</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.001448557828553021</v>
+        <v>0.08273018151521683</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001040746225044131</v>
+        <v>0.09898612648248672</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0003553596907295287</v>
+        <v>0.2711561918258667</v>
       </c>
       <c r="BD10" t="n">
-        <v>9.147018135990947e-05</v>
+        <v>0.08073873817920685</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.00088528823107481</v>
+        <v>0.2997004985809326</v>
       </c>
       <c r="BF10" t="n">
-        <v>9.690954175312072e-05</v>
+        <v>0.2830593287944794</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.001705684117041528</v>
+        <v>0.3465195000171661</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0007146423449739814</v>
+        <v>0.2462309747934341</v>
       </c>
       <c r="BI10" t="n">
-        <v>7.56252120481804e-05</v>
+        <v>0.2204594016075134</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0005376501358114183</v>
+        <v>0.6345166563987732</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.000366674386896193</v>
+        <v>0.1540269404649734</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0002905128640122712</v>
+        <v>0.03484664857387543</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0002678407181520015</v>
+        <v>0.6154871582984924</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0007095948094502091</v>
+        <v>0.001740485429763794</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0002667975495569408</v>
+        <v>0.6533644795417786</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.00049666000995785</v>
+        <v>0.7857354879379272</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.036867590504698e-05</v>
+        <v>0.1905483454465866</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0001209806287079118</v>
+        <v>0.01684025675058365</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0002823506947606802</v>
+        <v>0.291817843914032</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0002666836080607027</v>
+        <v>0.06917299330234528</v>
       </c>
       <c r="BU10" t="n">
-        <v>9.053409303305671e-05</v>
+        <v>0.07760173827409744</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0004404180799610913</v>
+        <v>0.4456788003444672</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.001312097301706672</v>
+        <v>0.158964067697525</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0001195077929878607</v>
+        <v>0.08793199062347412</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0004370971000753343</v>
+        <v>0.2582885026931763</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0005346701364032924</v>
+        <v>0.04736028611660004</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0002253413549624383</v>
+        <v>0.3982261121273041</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0004282367299310863</v>
+        <v>0.07723071426153183</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0002927322348114103</v>
+        <v>0.1321753859519958</v>
       </c>
       <c r="CD10" t="n">
-        <v>9.282313112635165e-05</v>
+        <v>0.03539539873600006</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0004405076033435762</v>
+        <v>0.1816160976886749</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0005646077916026115</v>
+        <v>0.06303701549768448</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0002401586825726554</v>
+        <v>0.05066424608230591</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0004157056682743132</v>
+        <v>0.02212437987327576</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.000235267129028216</v>
+        <v>0.1411550641059875</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0001349453814327717</v>
+        <v>0.004385217092931271</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.000191865605302155</v>
+        <v>0.2317972183227539</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.280683813500218e-05</v>
+        <v>0.04404326900839806</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0001326274359598756</v>
+        <v>0.517646312713623</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0001241728314198554</v>
+        <v>0.5482860207557678</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.000222132628550753</v>
+        <v>0.02368859946727753</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0001648182515054941</v>
+        <v>0.2228859812021255</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5.10468817083165e-05</v>
+        <v>0.6179128885269165</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.171632513636723e-05</v>
+        <v>0.0298263393342495</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002674688876140863</v>
+        <v>0.0614863783121109</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0005087023600935936</v>
+        <v>0.2279060184955597</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.000423726683948189</v>
+        <v>0.04825352877378464</v>
       </c>
       <c r="CV10" t="n">
-        <v>9.964249329641461e-05</v>
+        <v>0.01312214136123657</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0004185283032711595</v>
+        <v>0.1241174265742302</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0006431255023926497</v>
+        <v>0.08675140142440796</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.000189131242223084</v>
+        <v>0.1598922908306122</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0005949289188720286</v>
+        <v>0.03610655292868614</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0003055763663724065</v>
+        <v>0.1150492206215858</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001038541886373423</v>
+        <v>0.02209520898759365</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0001045103927026503</v>
+        <v>0.1289655715227127</v>
       </c>
       <c r="DD10" t="n">
-        <v>7.480604108422995e-05</v>
+        <v>0.000171992345713079</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0003336484951432794</v>
+        <v>0.5118924379348755</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0007007141248323023</v>
+        <v>0.707359790802002</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0001657533139223233</v>
+        <v>0.04452148824930191</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0004172646440565586</v>
+        <v>0.4016660451889038</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.000447680416982621</v>
+        <v>0.1456683576107025</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0008537748944945633</v>
+        <v>0.008732506074011326</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0001825158105930313</v>
+        <v>0.2871755659580231</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.481692470406415e-05</v>
+        <v>0.005766372662037611</v>
       </c>
       <c r="DM10" t="n">
-        <v>4.117308708373457e-05</v>
+        <v>0.08710582554340363</v>
       </c>
       <c r="DN10" t="n">
-        <v>7.758208084851503e-05</v>
+        <v>0.2867556214332581</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0001934409665409476</v>
+        <v>0.1767483353614807</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0001500067592132837</v>
+        <v>0.1557842940092087</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0001511420414317399</v>
+        <v>0.09559828788042068</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0001777584839146584</v>
+        <v>0.1108639016747475</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0004054036689922214</v>
+        <v>0.05500271543860435</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.002137080125976e-05</v>
+        <v>0.1441187709569931</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.000436238624388352</v>
+        <v>0.08936668932437897</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0002374373289057985</v>
+        <v>0.1204384416341782</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001021586504066363</v>
+        <v>0.1463519930839539</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0002458793460391462</v>
+        <v>0.03315784782171249</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0001287419581785798</v>
+        <v>0.001645969226956367</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0006475045811384916</v>
+        <v>0.326093852519989</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0002012755139730871</v>
+        <v>0.06079817563295364</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0001928622805280611</v>
+        <v>0.1271513998508453</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.357562521472573e-05</v>
+        <v>0.1246958151459694</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0006001109723001719</v>
+        <v>0.2090392559766769</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.000157887683599256</v>
+        <v>0.1011323258280754</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.000395975832361728</v>
+        <v>0.0966283455491066</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0003636200854089111</v>
+        <v>0.05005073547363281</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.000929785193875432</v>
+        <v>0.00667902734130621</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0003330617037136108</v>
+        <v>0.3166289329528809</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0008278114255517721</v>
+        <v>0.1007967740297318</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0008188217761926353</v>
+        <v>0.0813581794500351</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0001943616516655311</v>
+        <v>0.05641675740480423</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.302164764638292e-05</v>
+        <v>0.2287040799856186</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0005811136798001826</v>
+        <v>0.03997071459889412</v>
       </c>
       <c r="EO10" t="n">
-        <v>2.075824522762559e-05</v>
+        <v>0.2095561176538467</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0006101422477513552</v>
+        <v>0.04250308126211166</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0002495272783562541</v>
+        <v>0.1456290781497955</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0002512117498554289</v>
+        <v>0.0045052170753479</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.000314582051942125</v>
+        <v>0.1998366117477417</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0004552424943540245</v>
+        <v>0.0627235621213913</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0002376744523644447</v>
+        <v>0.1090070456266403</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0005882445257157087</v>
+        <v>0.07589300721883774</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0002413795737084001</v>
+        <v>0.04513723403215408</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0001811159017961472</v>
+        <v>0.01683671958744526</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0003112899139523506</v>
+        <v>0.1126291304826736</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0005987874465063214</v>
+        <v>0.04863322153687477</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0002600618463475257</v>
+        <v>0.0876166895031929</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0005620331503450871</v>
+        <v>0.06892810761928558</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0002602377207949758</v>
+        <v>0.1382238864898682</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0001079345820471644</v>
+        <v>0.04998105019330978</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.345828321878798e-05</v>
+        <v>0.2290327548980713</v>
       </c>
       <c r="FF10" t="n">
-        <v>5.415839768829755e-05</v>
+        <v>0.02537527307868004</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0001012322682072408</v>
+        <v>0.1809228360652924</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0001600299729034305</v>
+        <v>0.07211592048406601</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0005028412560932338</v>
+        <v>0.09214158356189728</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0005689560202881694</v>
+        <v>0.1153960451483727</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0001174367425846867</v>
+        <v>0.1794659495353699</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0004951775190420449</v>
+        <v>0.02097692340612411</v>
       </c>
       <c r="FM10" t="n">
-        <v>4.500612340052612e-05</v>
+        <v>0.07424232363700867</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0002404077531537041</v>
+        <v>0.06795231252908707</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0003143077483400702</v>
+        <v>0.04796817898750305</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0003935772983822972</v>
+        <v>0.1764541864395142</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.001415950478985906</v>
+        <v>0.2838466763496399</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0001269001222681254</v>
+        <v>0.2318597435951233</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.000315050536300987</v>
+        <v>0.4895462393760681</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.000297042221063748</v>
+        <v>0.3676154315471649</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0001392452686559409</v>
+        <v>0.133421465754509</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0001790329406503588</v>
+        <v>0.2633978128433228</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0003480739833321422</v>
+        <v>0.1427219212055206</v>
       </c>
       <c r="FX10" t="n">
-        <v>8.852789505908731e-06</v>
+        <v>0.08575734496116638</v>
       </c>
       <c r="FY10" t="n">
-        <v>7.735426333965734e-05</v>
+        <v>0.1670346558094025</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0003748063172679394</v>
+        <v>0.3595616817474365</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0002543405280448496</v>
+        <v>0.03768039494752884</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0006837702821940184</v>
+        <v>0.3008478581905365</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0003196331381332129</v>
+        <v>0.2074195593595505</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.84762858832255e-05</v>
+        <v>0.08197572082281113</v>
       </c>
       <c r="GE10" t="n">
-        <v>7.471092976629734e-05</v>
+        <v>0.1032343581318855</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0002791900187730789</v>
+        <v>0.3269290328025818</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0001285742328036577</v>
+        <v>0.1022303476929665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0560738779604435</v>
+        <v>0.1785058975219727</v>
       </c>
       <c r="B11" t="n">
-        <v>0.144186794757843</v>
+        <v>0.36905437707901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1551394611597061</v>
+        <v>0.03300226107239723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05459511652588844</v>
+        <v>0.02122209221124649</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009051444008946419</v>
+        <v>0.0581580214202404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02080221101641655</v>
+        <v>0.1258778870105743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003906622529029846</v>
+        <v>0.05531566590070724</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001698054373264313</v>
+        <v>0.09837895631790161</v>
       </c>
       <c r="I11" t="n">
-        <v>0.069021075963974</v>
+        <v>0.07466897368431091</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06636624038219452</v>
+        <v>0.1324661672115326</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1253873705863953</v>
+        <v>0.278268963098526</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1716391444206238</v>
+        <v>0.04064899682998657</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005608963780105114</v>
+        <v>0.0919039249420166</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01615005359053612</v>
+        <v>0.2809614241123199</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02218419872224331</v>
+        <v>0.2070109248161316</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02282309904694557</v>
+        <v>0.12481589615345</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008343663066625595</v>
+        <v>0.2865845561027527</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08178284764289856</v>
+        <v>0.1100522577762604</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001391641446389258</v>
+        <v>0.02830346487462521</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05320710688829422</v>
+        <v>0.1984046846628189</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03970619663596153</v>
+        <v>0.04665237292647362</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01288204919546843</v>
+        <v>0.04504648596048355</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06011564657092094</v>
+        <v>0.1554616391658783</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02524043992161751</v>
+        <v>0.1055161133408546</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01239312719553709</v>
+        <v>0.04069948941469193</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0122517254203558</v>
+        <v>0.007867119275033474</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.007691153790801764</v>
+        <v>0.03440010920166969</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01024527009576559</v>
+        <v>0.003878947347402573</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0786634087562561</v>
+        <v>0.0913935974240303</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01025976706296206</v>
+        <v>0.05784723535180092</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03320447728037834</v>
+        <v>0.1506589204072952</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01569603756070137</v>
+        <v>0.08664491772651672</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.009844004176557064</v>
+        <v>0.1498627513647079</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01731067523360252</v>
+        <v>0.1266684532165527</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.03164634853601456</v>
+        <v>0.06227865442633629</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.05868378654122353</v>
+        <v>0.01503893919289112</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01080511696636677</v>
+        <v>0.1014063507318497</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.02759204059839249</v>
+        <v>0.1049103587865829</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.032120730727911</v>
+        <v>0.02938035875558853</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.657792255282402e-05</v>
+        <v>0.03483988344669342</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001618566690012813</v>
+        <v>0.05470554903149605</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.002423027995973825</v>
+        <v>0.09756646305322647</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.002362166531383991</v>
+        <v>0.1156919598579407</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0237752553075552</v>
+        <v>0.09879714995622635</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01511202659457922</v>
+        <v>0.05509399622678757</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.04522271454334259</v>
+        <v>0.1766034662723541</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.07080842554569244</v>
+        <v>0.4033888280391693</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.04531892016530037</v>
+        <v>0.05088284984230995</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01865518093109131</v>
+        <v>0.03980614244937897</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.05549776181578636</v>
+        <v>0.2543260753154755</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.02103022299706936</v>
+        <v>0.0007480606436729431</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.02551130205392838</v>
+        <v>0.00413201842457056</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0196259617805481</v>
+        <v>0.09203361719846725</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01512867771089077</v>
+        <v>0.07550526410341263</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.01714877039194107</v>
+        <v>0.1262698024511337</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.04981978237628937</v>
+        <v>0.01670357584953308</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.04090670496225357</v>
+        <v>0.04335686191916466</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.02746594697237015</v>
+        <v>0.06795505434274673</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.08831875771284103</v>
+        <v>0.2363910228013992</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03274297714233398</v>
+        <v>0.08203434944152832</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.005209088325500488</v>
+        <v>0.07061326503753662</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.02298121340572834</v>
+        <v>0.2195236384868622</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003922717180103064</v>
+        <v>0.1079051569104195</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02118683233857155</v>
+        <v>0.04298045858740807</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02253936044871807</v>
+        <v>0.1441498994827271</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.03624832257628441</v>
+        <v>0.01703748293220997</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01861979067325592</v>
+        <v>0.2245606482028961</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.002207511570304632</v>
+        <v>0.3627542555332184</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.04585307464003563</v>
+        <v>0.1031613945960999</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.006764415185898542</v>
+        <v>0.02812028676271439</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.008303446695208549</v>
+        <v>0.1772933751344681</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.005866652354598045</v>
+        <v>0.1160843297839165</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.04511516541242599</v>
+        <v>0.085245281457901</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.05081136524677277</v>
+        <v>0.2182473987340927</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.06412146240472794</v>
+        <v>0.008310504257678986</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.01457782834768295</v>
+        <v>0.06547863781452179</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.007929829880595207</v>
+        <v>0.06882446259260178</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.02678224071860313</v>
+        <v>0.03274517878890038</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.005104528740048409</v>
+        <v>0.134245753288269</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.02232198044657707</v>
+        <v>0.04800796136260033</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01507999561727047</v>
+        <v>0.02041643299162388</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.008430437184870243</v>
+        <v>0.0143684558570385</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.02651416324079037</v>
+        <v>0.07027826458215714</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.02322855219244957</v>
+        <v>0.02102119289338589</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.008455547504127026</v>
+        <v>0.05571596324443817</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.00667252903804183</v>
+        <v>0.01974327303469181</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.003415230894461274</v>
+        <v>0.005046356935054064</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01016190461814404</v>
+        <v>0.003301255404949188</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.003030173480510712</v>
+        <v>0.003713787999004126</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.009650682099163532</v>
+        <v>0.01279300823807716</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.005447860807180405</v>
+        <v>0.1911555826663971</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.005083221010863781</v>
+        <v>0.1391775161027908</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.02660790830850601</v>
+        <v>0.02104791253805161</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.008685266599059105</v>
+        <v>0.04821667447686195</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.05280610173940659</v>
+        <v>0.2453827857971191</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.007544510532170534</v>
+        <v>0.01993242651224136</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.023503627628088</v>
+        <v>0.08484429121017456</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.03125989064574242</v>
+        <v>0.01550243515521288</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.03590803593397141</v>
+        <v>0.05228736996650696</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.006109895650297403</v>
+        <v>0.004819903522729874</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.02743102610111237</v>
+        <v>0.0749894455075264</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02580095641314983</v>
+        <v>0.01664065755903721</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.002969653345644474</v>
+        <v>0.07524070143699646</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01164964027702808</v>
+        <v>0.0004792466061189771</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.003915406763553619</v>
+        <v>0.03525016084313393</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0120721310377121</v>
+        <v>0.02778257802128792</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.007464506197720766</v>
+        <v>0.02747885882854462</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01104037277400494</v>
+        <v>0.01158794201910496</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01098800916224718</v>
+        <v>0.2552921772003174</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05674523487687111</v>
+        <v>0.4576517343521118</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.008749732747673988</v>
+        <v>0.01689344085752964</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0669381394982338</v>
+        <v>0.06083082407712936</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0107683539390564</v>
+        <v>0.01556211896240711</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01522800419479609</v>
+        <v>0.2255039066076279</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03179214894771576</v>
+        <v>0.1635230630636215</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0175752080976963</v>
+        <v>0.06466761231422424</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.006223168689757586</v>
+        <v>0.1243377551436424</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.03366323933005333</v>
+        <v>0.1008214950561523</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.03031934797763824</v>
+        <v>0.1428093016147614</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.02007750608026981</v>
+        <v>0.02507951855659485</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.009210768155753613</v>
+        <v>0.1083962544798851</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.00622461223974824</v>
+        <v>0.08816306293010712</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.002578526269644499</v>
+        <v>0.005506303161382675</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.008728311397135258</v>
+        <v>0.09495318681001663</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.02109698951244354</v>
+        <v>0.005987959448248148</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.01773480698466301</v>
+        <v>0.07919382303953171</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01024977117776871</v>
+        <v>0.04015098884701729</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02820000797510147</v>
+        <v>0.06342427432537079</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.003184354864060879</v>
+        <v>0.07610840350389481</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.006145968101918697</v>
+        <v>0.1430927217006683</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01260697469115257</v>
+        <v>0.06801983714103699</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.01506576221436262</v>
+        <v>0.05497930943965912</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.006637285929173231</v>
+        <v>0.08960016071796417</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01404003147035837</v>
+        <v>0.05631193146109581</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.03011604584753513</v>
+        <v>0.06849435716867447</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.01145770587027073</v>
+        <v>0.06361579149961472</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001529516652226448</v>
+        <v>0.1302297562360764</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.03403496369719505</v>
+        <v>0.01752036437392235</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0161624401807785</v>
+        <v>0.07230142503976822</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.009219205006957054</v>
+        <v>0.01435679756104946</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.00831932108849287</v>
+        <v>0.07033649832010269</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.007433392573148012</v>
+        <v>0.05618277937173843</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.008363048546016216</v>
+        <v>0.03618621081113815</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0005113601218909025</v>
+        <v>0.02653607726097107</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.01532043889164925</v>
+        <v>0.05040245875716209</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.04809218645095825</v>
+        <v>0.001931716222316027</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02068872936069965</v>
+        <v>0.007393855601549149</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0231379009783268</v>
+        <v>0.002949799410998821</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04250882938504219</v>
+        <v>0.01516387425363064</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01129888463765383</v>
+        <v>0.04564440250396729</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.001971914432942867</v>
+        <v>0.03662963956594467</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.01319569814950228</v>
+        <v>0.04398331418633461</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.01881398260593414</v>
+        <v>0.06001998856663704</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.01669228635728359</v>
+        <v>0.02210699766874313</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01667911931872368</v>
+        <v>0.05808040499687195</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.02560891956090927</v>
+        <v>0.009572026319801807</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.00237909983843565</v>
+        <v>0.05506433174014091</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01169600337743759</v>
+        <v>0.03024112805724144</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.004605381283909082</v>
+        <v>0.02261793427169323</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01017747446894646</v>
+        <v>0.007103001698851585</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001395207829773426</v>
+        <v>0.02340796589851379</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.01061171479523182</v>
+        <v>0.001576860435307026</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.001487364992499352</v>
+        <v>0.1372915506362915</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01199679356068373</v>
+        <v>0.07758759707212448</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.04548784345388412</v>
+        <v>0.0358884334564209</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.01039426121860743</v>
+        <v>0.1101730987429619</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01681921072304249</v>
+        <v>0.02894258499145508</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.02516948059201241</v>
+        <v>0.0004274533130228519</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.009168336167931557</v>
+        <v>0.01653508096933365</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.007134112529456615</v>
+        <v>0.03398001939058304</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.003779290243983269</v>
+        <v>0.05197087302803993</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.03315843641757965</v>
+        <v>0.04627938568592072</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.03720543533563614</v>
+        <v>0.04835402593016624</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.01999426074326038</v>
+        <v>0.05593550205230713</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05804064124822617</v>
+        <v>0.1917947828769684</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.03130067884922028</v>
+        <v>0.178268238902092</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.002988989464938641</v>
+        <v>0.03263234719634056</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.004490383435040712</v>
+        <v>0.009676225483417511</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0009588076500222087</v>
+        <v>0.02924420684576035</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.07568042725324631</v>
+        <v>0.0722920298576355</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.004638436250388622</v>
+        <v>0.02783397398889065</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.007491765543818474</v>
+        <v>0.1579596549272537</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.03332926332950592</v>
+        <v>0.04145868867635727</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03972665593028069</v>
+        <v>0.2370077967643738</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.04581401124596596</v>
+        <v>0.2696269452571869</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.006004581693559885</v>
+        <v>0.08622848242521286</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.008840697817504406</v>
+        <v>0.1797463297843933</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.006715429946780205</v>
+        <v>0.2500349283218384</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.01098360866308212</v>
+        <v>0.03324348479509354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01052314601838589</v>
+        <v>0.001688490272499621</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02618622034788132</v>
+        <v>0.159101814031601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05847121402621269</v>
+        <v>0.01414323877543211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07188067585229874</v>
+        <v>0.03712310642004013</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008671937510371208</v>
+        <v>0.04584396257996559</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01146635971963406</v>
+        <v>0.0351158119738102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009011277928948402</v>
+        <v>0.06603056192398071</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007203119806945324</v>
+        <v>0.002354292897507548</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01770773157477379</v>
+        <v>0.01572060212492943</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01955967769026756</v>
+        <v>0.02223145216703415</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02554059587419033</v>
+        <v>0.1157499179244041</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05847862735390663</v>
+        <v>0.005694691557437181</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06065919622778893</v>
+        <v>0.07475157827138901</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01688265055418015</v>
+        <v>0.05142901092767715</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01343396678566933</v>
+        <v>0.04437564313411713</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009463503956794739</v>
+        <v>0.05905909091234207</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01343879569321871</v>
+        <v>0.01864754967391491</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0246462095528841</v>
+        <v>0.003173728240653872</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005802785977721214</v>
+        <v>0.01976953819394112</v>
       </c>
       <c r="T12" t="n">
-        <v>0.007690797094255686</v>
+        <v>0.04402253031730652</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004684265702962875</v>
+        <v>0.0007345877820625901</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01341387256979942</v>
+        <v>0.004908669274300337</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03108222037553787</v>
+        <v>0.03945431113243103</v>
       </c>
       <c r="X12" t="n">
-        <v>0.008596005849540234</v>
+        <v>0.02913609147071838</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.002283775480464101</v>
+        <v>0.003780201077461243</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.006483678705990314</v>
+        <v>0.008325269445776939</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.005565992556512356</v>
+        <v>0.01360843703150749</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02207375690340996</v>
+        <v>0.01737248338758945</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01705551892518997</v>
+        <v>0.03802994266152382</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006081927102059126</v>
+        <v>0.005451198201626539</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.016832634806633</v>
+        <v>0.002349270507693291</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.005106542725116014</v>
+        <v>0.008256056345999241</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0002014816273003817</v>
+        <v>0.009722014889121056</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0019708510953933</v>
+        <v>0.0003464808687567711</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001623368007130921</v>
+        <v>0.003527581226080656</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.01209620945155621</v>
+        <v>0.01261954102665186</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01963907852768898</v>
+        <v>0.01860169135034084</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002972290385514498</v>
+        <v>0.01918607391417027</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.01491552032530308</v>
+        <v>5.441508983494714e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001607391983270645</v>
+        <v>0.01820056140422821</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.004111190792173147</v>
+        <v>0.007887687534093857</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.008372118696570396</v>
+        <v>0.007862799800932407</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0006366305751726031</v>
+        <v>0.00902960542589426</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001988549251109362</v>
+        <v>0.003606651909649372</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.00251805642619729</v>
+        <v>0.005070412997156382</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01432888582348824</v>
+        <v>0.04168966040015221</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.03186851367354393</v>
+        <v>0.1328303068876266</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.03505651652812958</v>
+        <v>0.001207308028824627</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.01190893538296223</v>
+        <v>0.03701679781079292</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02973822690546513</v>
+        <v>0.002654870972037315</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.01112802885472775</v>
+        <v>0.02395100705325603</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.002132212510332465</v>
+        <v>0.01936038210988045</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0142541341483593</v>
+        <v>0.01627752371132374</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.008384475484490395</v>
+        <v>0.009917463175952435</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.007510269060730934</v>
+        <v>0.01207627728581429</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.007508437614887953</v>
+        <v>0.03436477854847908</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.01901909336447716</v>
+        <v>0.04461120069026947</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.03142911568284035</v>
+        <v>0.03176257386803627</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.02988269925117493</v>
+        <v>0.03791063278913498</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.03279928117990494</v>
+        <v>0.01957163959741592</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.008600417524576187</v>
+        <v>0.02464037016034126</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.007492692675441504</v>
+        <v>0.02550322189927101</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.007060592528432608</v>
+        <v>0.006380021572113037</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01343678869307041</v>
+        <v>0.006125720217823982</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01502069085836411</v>
+        <v>0.04105276614427567</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.01648705638945103</v>
+        <v>0.02683715522289276</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01216244604438543</v>
+        <v>0.01799601688981056</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01814628578722477</v>
+        <v>0.05863278731703758</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.002207138808444142</v>
+        <v>0.0142814964056015</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0033061308786273</v>
+        <v>0.01209710538387299</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0002611881354823709</v>
+        <v>0.01392101123929024</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.002419268246740103</v>
+        <v>0.006474705412983894</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.02150780521333218</v>
+        <v>0.01668269373476505</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.006951809395104647</v>
+        <v>0.06114602088928223</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.02051958627998829</v>
+        <v>0.02510211616754532</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.01609850116074085</v>
+        <v>0.01798036135733128</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.005946026649326086</v>
+        <v>0.0003354632353875786</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.01755673624575138</v>
+        <v>0.01682025007903576</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.001296141883358359</v>
+        <v>0.004320337437093258</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.008711012080311775</v>
+        <v>0.02399128675460815</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.002775078639388084</v>
+        <v>0.01136272773146629</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0247727669775486</v>
+        <v>0.004400121048092842</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.002591874450445175</v>
+        <v>0.03303417563438416</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01074722222983837</v>
+        <v>0.0141065726056695</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.01254075765609741</v>
+        <v>0.01812286302447319</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.004188552964478731</v>
+        <v>0.001793672563508153</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.007871687412261963</v>
+        <v>0.007304257247596979</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.003285103710368276</v>
+        <v>0.01182798948138952</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.005294016562402248</v>
+        <v>0.001714748097583652</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.004986130632460117</v>
+        <v>0.01099538803100586</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.01353783346712589</v>
+        <v>0.03837748989462852</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01841727085411549</v>
+        <v>0.04898605495691299</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.009618545882403851</v>
+        <v>0.003926637582480907</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.003310876432806253</v>
+        <v>0.003334484063088894</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.01070540491491556</v>
+        <v>0.03675209358334541</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.04100382328033447</v>
+        <v>0.01858034916222095</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0002591459779068828</v>
+        <v>0.005264658946543932</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.005532669834792614</v>
+        <v>0.003736663609743118</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.01321376673877239</v>
+        <v>0.01184309646487236</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.02388479001820087</v>
+        <v>0.007126828655600548</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.00612238934263587</v>
+        <v>0.0264835674315691</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01194598339498043</v>
+        <v>0.01909744925796986</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.01267819944769144</v>
+        <v>0.02615599893033504</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001803679391741753</v>
+        <v>0.0004525885451585054</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.008675859309732914</v>
+        <v>0.002893470693379641</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.00117269589100033</v>
+        <v>0.01571739464998245</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.004580999258905649</v>
+        <v>0.002777354326099157</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.005328110884875059</v>
+        <v>0.009013029746711254</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.02391207218170166</v>
+        <v>0.007290550507605076</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.006074516568332911</v>
+        <v>0.08557961136102676</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.002588673261925578</v>
+        <v>0.01562272105365992</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0100656459107995</v>
+        <v>0.03599465265870094</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02353343926370144</v>
+        <v>0.03495074063539505</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.007528786547482014</v>
+        <v>0.009997123852372169</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.007031986024230719</v>
+        <v>0.02597737312316895</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.01441803388297558</v>
+        <v>0.01238163281232119</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.000930337468162179</v>
+        <v>0.02586708962917328</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01876093633472919</v>
+        <v>0.001789045054465532</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.001884446945041418</v>
+        <v>0.02159805782139301</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.007527925074100494</v>
+        <v>0.01956662721931934</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.007456792518496513</v>
+        <v>0.004619236569851637</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01794693805277348</v>
+        <v>0.01042799837887287</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.002718501258641481</v>
+        <v>0.005256003700196743</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.009306370280683041</v>
+        <v>0.01039673294872046</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.009581593796610832</v>
+        <v>0.001100389519706368</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.006498794537037611</v>
+        <v>0.009880665689706802</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.003986472263932228</v>
+        <v>0.003769258502870798</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.004824677482247353</v>
+        <v>0.02077572420239449</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0153299868106842</v>
+        <v>0.01020885724574327</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01354015897959471</v>
+        <v>0.01907014846801758</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0003836930554825813</v>
+        <v>0.01738466881215572</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.02222353406250477</v>
+        <v>0.002568985335528851</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.004528315272182226</v>
+        <v>0.003600560361519456</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.001013997942209244</v>
+        <v>0.01984313316643238</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.005133912432938814</v>
+        <v>0.006250106729567051</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.02421409264206886</v>
+        <v>0.0143508818000555</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.0156739242374897</v>
+        <v>0.006254241801798344</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.009359534829854965</v>
+        <v>0.009737790562212467</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.01893410831689835</v>
+        <v>0.02631752379238605</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02189723402261734</v>
+        <v>0.002300365129485726</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0162136759608984</v>
+        <v>0.008708580397069454</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0009728900040499866</v>
+        <v>0.01571605540812016</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001312653184868395</v>
+        <v>0.01237637829035521</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0001515049807494506</v>
+        <v>0.003925780300050974</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.01493216026574373</v>
+        <v>0.01950212195515633</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.001901005860418081</v>
+        <v>0.01152659673243761</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.004876268096268177</v>
+        <v>0.02685341611504555</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.005251779686659575</v>
+        <v>0.02031692489981651</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.00877311360090971</v>
+        <v>0.009315925650298595</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.004943178035318851</v>
+        <v>0.009850376285612583</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.002500495640560985</v>
+        <v>0.01505731232464314</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.004850815981626511</v>
+        <v>0.008203685283660889</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.006248602643609047</v>
+        <v>0.0002028846647590399</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02340516075491905</v>
+        <v>0.006819674279540777</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.008417344652116299</v>
+        <v>0.02569280937314034</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01086453069001436</v>
+        <v>0.01383678521960974</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0116430502384901</v>
+        <v>0.0191070307046175</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003422090085223317</v>
+        <v>0.00273720221593976</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.008226002566516399</v>
+        <v>0.007142956368625164</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.001892307074740529</v>
+        <v>0.01826029643416405</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.004257402382791042</v>
+        <v>0.004827022552490234</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.004202387295663357</v>
+        <v>0.01190976239740849</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01315924804657698</v>
+        <v>0.01924579776823521</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0004370759706944227</v>
+        <v>0.0077784089371562</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.01563184335827827</v>
+        <v>0.01439963467419147</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.009710082784295082</v>
+        <v>0.01130003295838833</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.00489404471591115</v>
+        <v>0.01829403452575207</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.02952174097299576</v>
+        <v>0.0145176388323307</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.002243906958028674</v>
+        <v>0.001429123105481267</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.005578260403126478</v>
+        <v>0.01083183754235506</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.002293976489454508</v>
+        <v>0.00633748946711421</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.004238526802510023</v>
+        <v>0.01036070287227631</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.01988422125577927</v>
+        <v>0.02048853412270546</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.01124653685837984</v>
+        <v>0.009839354082942009</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.002171019557863474</v>
+        <v>0.02955874800682068</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.009798961691558361</v>
+        <v>0.02938451245427132</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.01709425263106823</v>
+        <v>0.01499487925320864</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.004401159472763538</v>
+        <v>0.03535845130681992</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.008091935887932777</v>
+        <v>0.03175776079297066</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0066425995901227</v>
+        <v>0.008741865865886211</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0215297807008028</v>
+        <v>0.02666060253977776</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.003199124243110418</v>
+        <v>0.01877139136195183</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.001774605829268694</v>
+        <v>0.004370822571218014</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.001744563924148679</v>
+        <v>0.02195832505822182</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.0139444237574935</v>
+        <v>0.00921123381704092</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.007232601754367352</v>
+        <v>0.01033216156065464</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.002937208628281951</v>
+        <v>0.03217199444770813</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.001685183844529092</v>
+        <v>0.02657701261341572</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.005377370398491621</v>
+        <v>0.01764890365302563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0003840061253868043</v>
+        <v>0.007300319150090218</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0009589428664185107</v>
+        <v>0.1024684906005859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005194315686821938</v>
+        <v>0.01497443020343781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009655770845711231</v>
+        <v>0.03515619039535522</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001825005747377872</v>
+        <v>0.02004498615860939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0012337596854195</v>
+        <v>0.009340878576040268</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004419757751747966</v>
+        <v>0.006242242176085711</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003289031563326716</v>
+        <v>0.003962090238928795</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001540996832773089</v>
+        <v>0.03367041423916817</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003531925030983984</v>
+        <v>0.009304896928369999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006003102753311396</v>
+        <v>0.07652039080858231</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004928340204060078</v>
+        <v>0.00182335777208209</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004809676029253751</v>
+        <v>0.03872751817107201</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001001138705760241</v>
+        <v>0.03684426471590996</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001019547577016056</v>
+        <v>0.01640619151294231</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0002978770644403994</v>
+        <v>0.009514125995337963</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003185253823176026</v>
+        <v>0.01293019019067287</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001657305168919265</v>
+        <v>0.02644253894686699</v>
       </c>
       <c r="S13" t="n">
-        <v>6.517982546938583e-05</v>
+        <v>0.001205906271934509</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001045248005539179</v>
+        <v>0.02315506525337696</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002029519819188863</v>
+        <v>0.01560514885932207</v>
       </c>
       <c r="V13" t="n">
-        <v>6.543006747961044e-05</v>
+        <v>0.01161738019436598</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0002162036544177681</v>
+        <v>0.001577997580170631</v>
       </c>
       <c r="X13" t="n">
-        <v>5.039095412939787e-05</v>
+        <v>0.01574217900633812</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.948339144699275e-05</v>
+        <v>0.004064628388732672</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001090667676180601</v>
+        <v>0.001917281886562705</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0003354995569679886</v>
+        <v>0.005962957162410021</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.421168942935765e-05</v>
+        <v>0.009422088041901588</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0003879493160638958</v>
+        <v>0.01811624504625797</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0007825078209862113</v>
+        <v>2.2093765437603e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001441917556803674</v>
+        <v>0.004130945540964603</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0002797515771817416</v>
+        <v>0.000468347454443574</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001806971413316205</v>
+        <v>0.008268686942756176</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0007431532139889896</v>
+        <v>0.004891940392553806</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0001071726001100615</v>
+        <v>0.01083364710211754</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0007773363031446934</v>
+        <v>0.002147099236026406</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001090205987566151</v>
+        <v>0.008504413068294525</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0002405449922662228</v>
+        <v>0.009106971323490143</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.001013506087474525</v>
+        <v>0.006021879147738218</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0002211891260230914</v>
+        <v>0.0005405023694038391</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.001030189101584256</v>
+        <v>0.0105886422097683</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0001607778685865924</v>
+        <v>0.01094288378953934</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.208759441506118e-05</v>
+        <v>0.006308941636234522</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001522387756267563</v>
+        <v>0.002118770033121109</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.832666935632005e-06</v>
+        <v>0.002146846847608685</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.429450538940728e-05</v>
+        <v>0.008818202652037144</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0005568492924794555</v>
+        <v>0.0774107426404953</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002224776893854141</v>
+        <v>0.002114470116794109</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0005560500430874527</v>
+        <v>0.00346939149312675</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001954094477696344</v>
+        <v>0.003437809646129608</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.825077823828906e-05</v>
+        <v>0.0002769315615296364</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0002186411002185196</v>
+        <v>0.007605468854308128</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.00126745761372149</v>
+        <v>0.001920527429319918</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.000265312846750021</v>
+        <v>0.009330982342362404</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.00017427938291803</v>
+        <v>0.003116061678156257</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.499034159583971e-05</v>
+        <v>0.02606865018606186</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001276173163205385</v>
+        <v>0.01802277006208897</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000542605179361999</v>
+        <v>0.00608340697363019</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.001452958211302757</v>
+        <v>0.03173185512423515</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0005051199696026742</v>
+        <v>0.01853996515274048</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0002123382582794875</v>
+        <v>0.002463091164827347</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001499725040048361</v>
+        <v>0.01574885100126266</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0009004153544083238</v>
+        <v>0.01107868552207947</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0003545341896824539</v>
+        <v>0.008935709483921528</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0004422811907716095</v>
+        <v>0.02323221229016781</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001144507434219122</v>
+        <v>0.008933951146900654</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.523538569221273e-07</v>
+        <v>0.0004706284962594509</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0005988451885059476</v>
+        <v>0.03861415013670921</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0003010108193848282</v>
+        <v>0.02020284533500671</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0004993967595510185</v>
+        <v>0.0002664842177182436</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.000606867135502398</v>
+        <v>0.006348145194351673</v>
       </c>
       <c r="BT13" t="n">
-        <v>3.819254925474524e-05</v>
+        <v>0.0008488569874316454</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0001221600541612133</v>
+        <v>0.004633675795048475</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0004470686835702509</v>
+        <v>0.04599640145897865</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001436704536899924</v>
+        <v>0.01049824338406324</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.474761484132614e-05</v>
+        <v>0.008103892207145691</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0004650525224860758</v>
+        <v>0.005540604703128338</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0008851487655192614</v>
+        <v>0.0203399732708931</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0002209060185123235</v>
+        <v>0.01247287914156914</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.001008474151603878</v>
+        <v>0.001185955130495131</v>
       </c>
       <c r="CC13" t="n">
-        <v>7.63379575801082e-05</v>
+        <v>0.01127776969224215</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0002020830288529396</v>
+        <v>0.0008749660337343812</v>
       </c>
       <c r="CE13" t="n">
-        <v>6.40904254396446e-05</v>
+        <v>0.0203244611620903</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0009783754358068109</v>
+        <v>0.001086320262402296</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0001020249910652637</v>
+        <v>0.007734540849924088</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0003917542635463178</v>
+        <v>0.002660314086824656</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0002622839529067278</v>
+        <v>0.0008139926358126104</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.000122821336844936</v>
+        <v>0.0005830836016684771</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0004013241268694401</v>
+        <v>0.003005616832524538</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002368252025917172</v>
+        <v>0.009390599094331264</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0002294985752087086</v>
+        <v>0.02700105868279934</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0008244194323197007</v>
+        <v>0.0331643782556057</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0003865917678922415</v>
+        <v>0.0009251152514480054</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.658436642377637e-05</v>
+        <v>0.006586376111954451</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0009849184425547719</v>
+        <v>0.01544724684208632</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0004892962169833481</v>
+        <v>0.007022744044661522</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0004303274326957762</v>
+        <v>0.006775726098567247</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0001541247329441831</v>
+        <v>0.02395170927047729</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.000541234330739826</v>
+        <v>0.001390285789966583</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.00013293357915245</v>
+        <v>0.0010843361960724</v>
       </c>
       <c r="CW13" t="n">
-        <v>5.245899956207722e-05</v>
+        <v>0.01662189699709415</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001029790961183608</v>
+        <v>0.005432597827166319</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.447939004923683e-05</v>
+        <v>0.009954577311873436</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0007505415705963969</v>
+        <v>0.001310159801505506</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0001832152338465676</v>
+        <v>0.003004374215379357</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001143851113738492</v>
+        <v>0.0008252315456047654</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0004478715418372303</v>
+        <v>0.001055572647601366</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001153122575487942</v>
+        <v>0.007485161069780588</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0006240830989554524</v>
+        <v>0.01766287907958031</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0006691935122944415</v>
+        <v>0.06198115274310112</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0006843403680250049</v>
+        <v>0.01082515995949507</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.000337082426995039</v>
+        <v>0.03278730809688568</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0004112800233997405</v>
+        <v>0.001854595029726624</v>
       </c>
       <c r="DJ13" t="n">
-        <v>6.000415305607021e-05</v>
+        <v>0.002386806532740593</v>
       </c>
       <c r="DK13" t="n">
-        <v>7.900888158474118e-05</v>
+        <v>0.02838025987148285</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0005441568209789693</v>
+        <v>0.007911005988717079</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0002104283048538491</v>
+        <v>0.009793498553335667</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.872300658258609e-05</v>
+        <v>0.01089006848633289</v>
       </c>
       <c r="DO13" t="n">
-        <v>5.739095649914816e-05</v>
+        <v>0.01690211519598961</v>
       </c>
       <c r="DP13" t="n">
-        <v>8.033341873669997e-05</v>
+        <v>0.009393934160470963</v>
       </c>
       <c r="DQ13" t="n">
-        <v>7.705454481765628e-05</v>
+        <v>0.0108198057860136</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0002176072739530355</v>
+        <v>0.004626923240721226</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0006937571451999247</v>
+        <v>0.00015774488565512</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0002088694018311799</v>
+        <v>0.01601033098995686</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0003170577401760966</v>
+        <v>0.000568960327655077</v>
       </c>
       <c r="DV13" t="n">
-        <v>8.642018656246364e-05</v>
+        <v>0.0009788554161787033</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001512232411187142</v>
+        <v>0.007530909962952137</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0001049800848704763</v>
+        <v>0.008208848536014557</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006022293819114566</v>
+        <v>0.007599435746669769</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0004782695032190531</v>
+        <v>0.01095868740230799</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0003250417357776314</v>
+        <v>0.01220301259309053</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0001723356690490618</v>
+        <v>0.006329883821308613</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0001421678171027452</v>
+        <v>0.007798361126333475</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0004252440412528813</v>
+        <v>0.006559804547578096</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0002667887602001429</v>
+        <v>0.001283975783735514</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0007493301527574658</v>
+        <v>0.003323472803458571</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0005976111860945821</v>
+        <v>0.00162770738825202</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0009933322435244918</v>
+        <v>0.002333988668397069</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0002485819859430194</v>
+        <v>0.00702236220240593</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0002457798691466451</v>
+        <v>0.005496210884302855</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0007334114634431899</v>
+        <v>0.002422275952994823</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0002170062653021887</v>
+        <v>0.004390723071992397</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0007752474048174918</v>
+        <v>0.001636582193896174</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0002520150155760348</v>
+        <v>0.009670191444456577</v>
       </c>
       <c r="EO13" t="n">
-        <v>1.904056261992082e-05</v>
+        <v>0.009305817075073719</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0004625126020982862</v>
+        <v>0.008745322935283184</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.000560857355594635</v>
+        <v>0.008263245224952698</v>
       </c>
       <c r="ER13" t="n">
-        <v>7.837424345780164e-05</v>
+        <v>0.01068570837378502</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.000300590239930898</v>
+        <v>0.007851151749491692</v>
       </c>
       <c r="ET13" t="n">
-        <v>2.072451025014743e-05</v>
+        <v>0.01717545092105865</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004124844272155315</v>
+        <v>0.005525195971131325</v>
       </c>
       <c r="EV13" t="n">
-        <v>3.993576319771819e-05</v>
+        <v>0.01010089553892612</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0005001992103643715</v>
+        <v>0.006277552340179682</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0003611410211306065</v>
+        <v>0.0001060210634022951</v>
       </c>
       <c r="EY13" t="n">
-        <v>3.403503797017038e-06</v>
+        <v>0.01777738705277443</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001037389622069895</v>
+        <v>0.002635627053678036</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001086448392015882</v>
+        <v>0.008414763025939465</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0005812437157146633</v>
+        <v>0.00185228290501982</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.714101381367072e-05</v>
+        <v>0.005376082379370928</v>
       </c>
       <c r="FD13" t="n">
-        <v>7.497705519199371e-05</v>
+        <v>0.002475484274327755</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0005785459652543068</v>
+        <v>0.003373289946466684</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001479969068896025</v>
+        <v>0.006776021793484688</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0001831733097787946</v>
+        <v>0.005963819101452827</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0001553306356072426</v>
+        <v>0.006983952596783638</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0006327761220745742</v>
+        <v>0.001519196899607778</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0006828896584920585</v>
+        <v>0.008643047884106636</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0006158918258734047</v>
+        <v>0.007730145938694477</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0003093610284850001</v>
+        <v>0.003297658171504736</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0006060334853827953</v>
+        <v>0.006001310423016548</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0002166624180972576</v>
+        <v>0.006171479821205139</v>
       </c>
       <c r="FO13" t="n">
-        <v>9.791504999157041e-05</v>
+        <v>0.0137381674721837</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0007918102783150971</v>
+        <v>0.00522723188623786</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.001477763988077641</v>
+        <v>0.009938585571944714</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001043959870003164</v>
+        <v>0.01311207190155983</v>
       </c>
       <c r="FS13" t="n">
-        <v>8.634145342512056e-05</v>
+        <v>0.007269259542226791</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0005794442840851843</v>
+        <v>0.01672408729791641</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0006343725835904479</v>
+        <v>0.01399124134331942</v>
       </c>
       <c r="FV13" t="n">
-        <v>7.459642074536532e-05</v>
+        <v>0.001446743961423635</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0001512176240794361</v>
+        <v>0.006667444482445717</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0003580384945962578</v>
+        <v>0.005554037634283304</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0003070358652621508</v>
+        <v>0.004347075242549181</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0002399208897259086</v>
+        <v>0.0229545496404171</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0003023982280865312</v>
+        <v>0.01245952676981688</v>
       </c>
       <c r="GB13" t="n">
-        <v>6.907512579346076e-05</v>
+        <v>0.01518404949456453</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0006580356857739389</v>
+        <v>0.01790427416563034</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0009454636601731181</v>
+        <v>0.02329953759908676</v>
       </c>
       <c r="GE13" t="n">
-        <v>5.568302367464639e-05</v>
+        <v>0.01425187382847071</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0004277988919056952</v>
+        <v>0.003499445039778948</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0002260468318127096</v>
+        <v>0.002273515798151493</v>
       </c>
     </row>
     <row r="14">
@@ -8401,1709 +8401,1709 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01365949306637049</v>
+        <v>0.004003946203738451</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004964468069374561</v>
+        <v>0.01325512025505304</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02619633637368679</v>
+        <v>0.008434206247329712</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001791006186977029</v>
+        <v>0.002566887997090816</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002627040259540081</v>
+        <v>0.01370459888130426</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01295427605509758</v>
+        <v>0.001435591140761971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008912447839975357</v>
+        <v>0.007172403857111931</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00696042412891984</v>
+        <v>0.001161716063506901</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0009535899152979255</v>
+        <v>0.004386952612549067</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009224231354892254</v>
+        <v>0.003090270794928074</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003503430401906371</v>
+        <v>0.009386987425386906</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02549938857555389</v>
+        <v>0.00601956807076931</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007484816946089268</v>
+        <v>0.00768424104899168</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01454528793692589</v>
+        <v>0.02085842005908489</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01270756870508194</v>
+        <v>0.004197305999696255</v>
       </c>
       <c r="P15" t="n">
-        <v>0.007155449129641056</v>
+        <v>0.005643626675009727</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00564234796911478</v>
+        <v>0.002567792776972055</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004560687579214573</v>
+        <v>0.001281976932659745</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003873938228935003</v>
+        <v>0.0008258412126451731</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0004674664232879877</v>
+        <v>0.004371552262455225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001956661464646459</v>
+        <v>0.0002225235803052783</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002167259342968464</v>
+        <v>0.0005637770518660545</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003999925218522549</v>
+        <v>0.003596107242628932</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0009296145872212946</v>
+        <v>0.002741827163845301</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.00127864652313292</v>
+        <v>0.0008311188430525362</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002428876701742411</v>
+        <v>0.0001321215531788766</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00186281802598387</v>
+        <v>0.000150543957715854</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001516764052212238</v>
+        <v>0.001102462643757463</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.003046661149710417</v>
+        <v>0.004910745657980442</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001266081817448139</v>
+        <v>0.001992529723793268</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002532316371798515</v>
+        <v>0.001118161133490503</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0005953963263891637</v>
+        <v>0.003104699775576591</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.006254140753298998</v>
+        <v>7.491768337786198e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.006292429286986589</v>
+        <v>0.001083793351426721</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.007736187428236008</v>
+        <v>0.002886256668716669</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.039565101265907e-05</v>
+        <v>0.003331190440803766</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.001377404667437077</v>
+        <v>0.0008844734984450042</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.002758856164291501</v>
+        <v>0.006409476045519114</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.007777980528771877</v>
+        <v>0.0004918174236081541</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003156183985993266</v>
+        <v>0.001097520114853978</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0007659307448193431</v>
+        <v>0.001918227411806583</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.004758679773658514</v>
+        <v>0.003851904766634107</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0005102540599182248</v>
+        <v>0.002733056433498859</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001052251085639</v>
+        <v>0.003551610745489597</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0006940431776456535</v>
+        <v>0.00476709334179759</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.003792242147028446</v>
+        <v>0.006963322404772043</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.001277448376640677</v>
+        <v>0.01624748669564724</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.006908184383064508</v>
+        <v>0.005924713332206011</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01476408168673515</v>
+        <v>0.005496436730027199</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.01170438714325428</v>
+        <v>0.004661369603127241</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.008669879287481308</v>
+        <v>0.001747774425894022</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.01220014970749617</v>
+        <v>0.002747827209532261</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.00731348991394043</v>
+        <v>0.003487496636807919</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.00130914244800806</v>
+        <v>0.00258428743109107</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.005959782749414444</v>
+        <v>0.002935535274446011</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.006997797638177872</v>
+        <v>0.001475266879424453</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.004611817188560963</v>
+        <v>0.00407017394900322</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.00406394898891449</v>
+        <v>0.005767678841948509</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.01531012821942568</v>
+        <v>0.01570729725062847</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.004270729143172503</v>
+        <v>0.00361230131238699</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.01317688636481762</v>
+        <v>0.00338136195205152</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.008766675367951393</v>
+        <v>0.003456826554611325</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003737937891855836</v>
+        <v>0.002036446705460548</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.00246875686571002</v>
+        <v>0.004700642079114914</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.007047948427498341</v>
+        <v>0.004353960510343313</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.008273444138467312</v>
+        <v>0.002584083471447229</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0007819129386916757</v>
+        <v>0.003576856572180986</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.006225236225873232</v>
+        <v>0.01380861550569534</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.004480572417378426</v>
+        <v>0.00219031423330307</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.00364255765452981</v>
+        <v>0.003784516360610723</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.005979061592370272</v>
+        <v>0.006549211218953133</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0049213832244277</v>
+        <v>0.002338206628337502</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.003372306236997247</v>
+        <v>0.003889832645654678</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0004228646866977215</v>
+        <v>0.006610734853893518</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.01083740219473839</v>
+        <v>0.008021049201488495</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.002616048790514469</v>
+        <v>0.0009347657323814929</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01440145540982485</v>
+        <v>0.002062897197902203</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.008567877113819122</v>
+        <v>0.0003236450429540128</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.006557722110301256</v>
+        <v>0.004756541922688484</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.01131998002529144</v>
+        <v>0.0002477657981216908</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002284484915435314</v>
+        <v>0.001018004142679274</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.003621298354119062</v>
+        <v>0.000732834218069911</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0005511312047019601</v>
+        <v>0.003249798901379108</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.004473458044230938</v>
+        <v>0.0003211336152162403</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.001546187093481421</v>
+        <v>0.002355359960347414</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001189886941574514</v>
+        <v>0.00241000228561461</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002684508915990591</v>
+        <v>0.0001414652069797739</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001001967117190361</v>
+        <v>0.0002478463866282254</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0009326976723968983</v>
+        <v>0.0005553641822189093</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.001204792992211878</v>
+        <v>0.001283129560761154</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.002298115286976099</v>
+        <v>0.006886087357997894</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.004131141118705273</v>
+        <v>0.002744710305705667</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.006139837671071291</v>
+        <v>0.00258698919788003</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.00379886687733233</v>
+        <v>0.0002505695447325706</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.004120951518416405</v>
+        <v>0.001414319733157754</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.002714739646762609</v>
+        <v>0.001977395499125123</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.006210498046129942</v>
+        <v>0.0001014245208352804</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.006713002920150757</v>
+        <v>0.0002577505656518042</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.002384651219472289</v>
+        <v>0.002401183359324932</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.005248722154647112</v>
+        <v>0.000924036605283618</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0009236066835001111</v>
+        <v>0.002070571528747678</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.004147402010858059</v>
+        <v>0.0001187916495837271</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0003330492181703448</v>
+        <v>0.001599554205313325</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001998621039092541</v>
+        <v>0.002147336723282933</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.004159429576247931</v>
+        <v>0.0004416762094479054</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.001180049264803529</v>
+        <v>0.0004822404007427394</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0008951626368798316</v>
+        <v>2.763146767392755e-06</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0009918959112837911</v>
+        <v>0.001715810503810644</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0005619234871119261</v>
+        <v>0.001995375147089362</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.01263453904539347</v>
+        <v>0.009432845748960972</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.003160367254167795</v>
+        <v>0.0001432411663699895</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.005951837636530399</v>
+        <v>0.001346235978417099</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.001366864540614188</v>
+        <v>0.002908368362113833</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.007582198828458786</v>
+        <v>0.0002979370765388012</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.009702775627374649</v>
+        <v>0.007168478332459927</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.00141897751018405</v>
+        <v>0.003095888067036867</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.008912527002394199</v>
+        <v>0.002925826702266932</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0006601575296372175</v>
+        <v>0.003692056052386761</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.004528528079390526</v>
+        <v>0.003259495832026005</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.001871047890745103</v>
+        <v>0.001181135070510209</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.004252633079886436</v>
+        <v>0.001881300006061792</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0006209812127053738</v>
+        <v>0.001050698920153081</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.001672377693466842</v>
+        <v>0.003414023900404572</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001830856781452894</v>
+        <v>0.005586978979408741</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.002081625163555145</v>
+        <v>0.004576035775244236</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.001072584767825902</v>
+        <v>5.358061753213406e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0003148647956550121</v>
+        <v>0.004510171245783567</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0008041811524890363</v>
+        <v>0.001332470215857029</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.001350579550489783</v>
+        <v>0.001056349254213274</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0001528768334537745</v>
+        <v>0.003080181311815977</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.002317834179848433</v>
+        <v>0.001942923991009593</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001559891039505601</v>
+        <v>0.004594040103256702</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.002877586055546999</v>
+        <v>0.001052009407430887</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.003018232993781567</v>
+        <v>0.0008696184959262609</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.00370395602658391</v>
+        <v>0.00108338997233659</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0005909209721721709</v>
+        <v>0.0001833860296756029</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.004533028695732355</v>
+        <v>0.0003831417707260698</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.005201258696615696</v>
+        <v>0.0008502457640133798</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.00119694322347641</v>
+        <v>0.003087922930717468</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.004535282030701637</v>
+        <v>0.003207190195098519</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002826155163347721</v>
+        <v>0.0008775186724960804</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.001785025815479457</v>
+        <v>0.003969674464315176</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.001231932314112782</v>
+        <v>0.001611311687156558</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.003936958033591509</v>
+        <v>0.002557615982368588</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.001016790047287941</v>
+        <v>0.00203823740594089</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.003254324663430452</v>
+        <v>0.0004765833728015423</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0007100244984030724</v>
+        <v>0.003696304280310869</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0007252257782965899</v>
+        <v>0.0008713497663848102</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.006799251772463322</v>
+        <v>0.001156981335952878</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0004328563227318227</v>
+        <v>0.000954094750341028</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.002172827487811446</v>
+        <v>0.005116474814713001</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.003462793538346887</v>
+        <v>0.002599148778244853</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001536770956590772</v>
+        <v>0.003508592722937465</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.002940242644399405</v>
+        <v>0.0007128564757294953</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.001054287422448397</v>
+        <v>0.002186290686950088</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.004125054925680161</v>
+        <v>0.0001140915119322017</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.0004662483115680516</v>
+        <v>0.001953751780092716</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0008278632303699851</v>
+        <v>0.003118320135399699</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.002488367957994342</v>
+        <v>0.000156059511937201</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001691316952928901</v>
+        <v>0.0009135653963312507</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001198414480313659</v>
+        <v>0.0003870687505695969</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.001979582011699677</v>
+        <v>0.0002587545313872397</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.006012202240526676</v>
+        <v>0.005177861079573631</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.006740560289472342</v>
+        <v>0.003343183314427733</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.00578713696449995</v>
+        <v>0.002324374858289957</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.004913106560707092</v>
+        <v>0.0001015667803585529</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.004458482377231121</v>
+        <v>0.002370509784668684</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.007173980586230755</v>
+        <v>0.0005856056232005358</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0007199442479759455</v>
+        <v>0.002411041874438524</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.003542386461049318</v>
+        <v>0.004131346940994263</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.00314165186136961</v>
+        <v>0.002808234887197614</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.009811851195991039</v>
+        <v>0.002021112479269505</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.006870648823678493</v>
+        <v>0.00367979658767581</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.007228294387459755</v>
+        <v>0.004286367911845446</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.006611180491745472</v>
+        <v>0.005957896821200848</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.003457426559180021</v>
+        <v>0.00464492104947567</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.007236133329570293</v>
+        <v>0.001970507437363267</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0001863184152171016</v>
+        <v>0.0002553192898631096</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.002201557159423828</v>
+        <v>0.0053484165109694</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.002922730520367622</v>
+        <v>0.002292544115334749</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.005016783718019724</v>
+        <v>0.001771177630871534</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.00564234796911478</v>
+        <v>0.003346191719174385</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0001673107035458088</v>
+        <v>0.001315116882324219</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.004698476288467646</v>
+        <v>0.005957205314189196</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.007188772782683372</v>
+        <v>0.001958012813702226</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001164407236501575</v>
+        <v>0.00587029941380024</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0003672367893159389</v>
+        <v>0.003620647825300694</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.002673640148714185</v>
+        <v>0.0001274090027436614</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.004652871750295162</v>
+        <v>0.001357917441055179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001444401277694851</v>
+        <v>9.323027188656852e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>4.375928256195039e-06</v>
+        <v>0.0005014297785237432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001735864789225161</v>
+        <v>0.0002188557991757989</v>
       </c>
       <c r="D16" t="n">
-        <v>7.557056233054027e-05</v>
+        <v>9.54038041527383e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>3.601672506192699e-05</v>
+        <v>0.0001724394678603858</v>
       </c>
       <c r="F16" t="n">
-        <v>1.060969043464866e-05</v>
+        <v>2.298292383784428e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>7.483001536456868e-05</v>
+        <v>7.057460607029498e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002015339414356276</v>
+        <v>0.0001115867707994767</v>
       </c>
       <c r="I16" t="n">
-        <v>9.231588046532124e-05</v>
+        <v>8.566008546040393e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001030602725222707</v>
+        <v>1.828553649829701e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>9.433613740839064e-06</v>
+        <v>0.0003584201622288674</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001700223365332931</v>
+        <v>9.662585944170132e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.880025592981838e-07</v>
+        <v>9.883846360025927e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>9.740189125295728e-05</v>
+        <v>0.0002459270472172648</v>
       </c>
       <c r="O16" t="n">
-        <v>8.149770292220637e-05</v>
+        <v>1.099298424378503e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>5.826378765050322e-05</v>
+        <v>1.238628465216607e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0001945171679835767</v>
+        <v>2.766259240161162e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0001970877492567524</v>
+        <v>3.674590698210523e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>4.334174718678696e-06</v>
+        <v>1.994193917198572e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>3.854126407532021e-05</v>
+        <v>0.0001076500193448737</v>
       </c>
       <c r="U16" t="n">
-        <v>5.680309641320491e-06</v>
+        <v>5.2998755563749e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>2.154792127839755e-05</v>
+        <v>1.317451824434102e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>7.491689757443964e-08</v>
+        <v>2.054004653473385e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>7.89865298429504e-05</v>
+        <v>0.0001696559193078429</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.174903006060049e-05</v>
+        <v>3.123026181128807e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.149455970851704e-05</v>
+        <v>8.910286851460114e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.000111347486381419</v>
+        <v>2.715029722821782e-06</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.601618325570598e-05</v>
+        <v>5.702208000002429e-06</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.276866820873693e-05</v>
+        <v>0.0001267592451767996</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.635851216036826e-05</v>
+        <v>4.832575723412447e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.01408363156952e-07</v>
+        <v>2.569281787145883e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.748215961735696e-05</v>
+        <v>9.153171413345262e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.397123747272417e-05</v>
+        <v>1.333278487436473e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0001233824150403962</v>
+        <v>2.684400169528089e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.000115212045784574</v>
+        <v>1.529953806311823e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0001118268555728719</v>
+        <v>9.58104010351235e-07</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.878209306800272e-05</v>
+        <v>4.523250754573382e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>6.659607606707141e-05</v>
+        <v>0.0001372768601868302</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.189745125884656e-05</v>
+        <v>1.982785033760592e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.287164382636547e-05</v>
+        <v>1.81492305273423e-06</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.699829049874097e-05</v>
+        <v>6.193308217916638e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.360342477913946e-05</v>
+        <v>5.030417742091231e-05</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.675401997810695e-06</v>
+        <v>1.931925180542748e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.904083910631016e-05</v>
+        <v>1.70587172760861e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.92786020913627e-05</v>
+        <v>5.692088961950503e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0001563111582072452</v>
+        <v>6.452905654441565e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0001716017286526039</v>
+        <v>0.0005237510777078569</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.557562351692468e-05</v>
+        <v>0.0001001268465188332</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0001566789578646421</v>
+        <v>1.365525076835183e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0002109416236635298</v>
+        <v>3.517833829391748e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.56946169026196e-05</v>
+        <v>2.058880090771709e-05</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.165272962884046e-05</v>
+        <v>3.156328602926806e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>6.052880053175613e-05</v>
+        <v>0.0001001488999463618</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.786137186689302e-05</v>
+        <v>0.0001398106833221391</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.910942566813901e-05</v>
+        <v>1.78305108420318e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>3.102142363786697e-05</v>
+        <v>2.219916859758087e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>2.914419201260898e-05</v>
+        <v>8.8904271251522e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.685078965849243e-05</v>
+        <v>2.352134652028326e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0002830585581250489</v>
+        <v>0.0002926987654063851</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.279856951441616e-05</v>
+        <v>6.666933768428862e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>6.41963015368674e-06</v>
+        <v>1.427879215043504e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0001543912512715906</v>
+        <v>1.968401738849934e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>4.824853022000752e-06</v>
+        <v>3.348040991113521e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>5.193241122469772e-06</v>
+        <v>0.0001537942735012621</v>
       </c>
       <c r="BM16" t="n">
-        <v>4.493033884500619e-06</v>
+        <v>0.000126713581266813</v>
       </c>
       <c r="BN16" t="n">
-        <v>4.228698162478395e-05</v>
+        <v>6.463954196078703e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>4.548636206891388e-05</v>
+        <v>7.687690231250599e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.978598447749391e-05</v>
+        <v>0.0002045948785962537</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.0001040397037286311</v>
+        <v>5.07917684444692e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>4.945155160385184e-05</v>
+        <v>2.719259282457642e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>5.319422052707523e-05</v>
+        <v>0.0001091774247470312</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0001041250725393184</v>
+        <v>1.502481973147951e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>7.211962656583637e-05</v>
+        <v>5.213604890741408e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>6.69667060719803e-05</v>
+        <v>0.0002543159062042832</v>
       </c>
       <c r="BW16" t="n">
-        <v>7.828904927009717e-05</v>
+        <v>0.0001535190676804632</v>
       </c>
       <c r="BX16" t="n">
-        <v>6.133129500085488e-05</v>
+        <v>4.764140612678602e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.492196108505595e-05</v>
+        <v>0.0001178806705866009</v>
       </c>
       <c r="BZ16" t="n">
-        <v>2.121873512805905e-05</v>
+        <v>0.0001370606478303671</v>
       </c>
       <c r="CA16" t="n">
-        <v>5.129928467795253e-06</v>
+        <v>7.572553295176476e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>7.569312583655119e-05</v>
+        <v>1.557512223371305e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>5.763289664173499e-05</v>
+        <v>9.810502524487674e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>1.961369889613707e-05</v>
+        <v>3.470619776635431e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>6.276970088947564e-05</v>
+        <v>9.293587936554104e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>2.044611755991355e-05</v>
+        <v>1.879931551229674e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.389304452459328e-05</v>
+        <v>5.397172571974806e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.159161133226007e-05</v>
+        <v>5.721504294342594e-06</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.048679223458748e-07</v>
+        <v>2.66116694547236e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>7.971321792865638e-06</v>
+        <v>2.816749110934325e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>4.956147677148692e-06</v>
+        <v>1.676724241406191e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.507310273358598e-05</v>
+        <v>8.863403309078421e-06</v>
       </c>
       <c r="CM16" t="n">
-        <v>5.368519850890152e-05</v>
+        <v>0.0001519485813332722</v>
       </c>
       <c r="CN16" t="n">
-        <v>7.958796777529642e-05</v>
+        <v>0.0001480045611970127</v>
       </c>
       <c r="CO16" t="n">
-        <v>6.936163845239207e-05</v>
+        <v>4.952793460688554e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>6.703453254885972e-05</v>
+        <v>1.460586281609721e-05</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.000143254830618389</v>
+        <v>8.937879465520382e-05</v>
       </c>
       <c r="CR16" t="n">
-        <v>9.336797666037455e-05</v>
+        <v>1.838878779381048e-05</v>
       </c>
       <c r="CS16" t="n">
-        <v>5.92325595789589e-05</v>
+        <v>1.058774432749487e-05</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.806642649171408e-05</v>
+        <v>5.970973234070698e-06</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.0001054447347996756</v>
+        <v>6.836726242909208e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.269677108619362e-05</v>
+        <v>4.241502756485716e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>8.251324470620602e-05</v>
+        <v>6.79586228216067e-05</v>
       </c>
       <c r="CX16" t="n">
-        <v>2.743005097727291e-05</v>
+        <v>1.354885262117023e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.184238044515951e-05</v>
+        <v>5.954355219728313e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>5.071085979579948e-05</v>
+        <v>1.263500234927051e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>2.091449459840078e-05</v>
+        <v>3.591455606510863e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>4.61753188574221e-07</v>
+        <v>2.88328665192239e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>1.327811423834646e-05</v>
+        <v>8.549286576453596e-06</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.556926144985482e-05</v>
+        <v>2.207775833085179e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>9.188805415760726e-05</v>
+        <v>0.000112738081952557</v>
       </c>
       <c r="DF16" t="n">
-        <v>2.123490412486717e-05</v>
+        <v>0.000168211234267801</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.030793282552622e-05</v>
+        <v>2.101783684338443e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>5.486633381224237e-05</v>
+        <v>0.0001619420218048617</v>
       </c>
       <c r="DI16" t="n">
-        <v>5.833153409184888e-05</v>
+        <v>0.0001232728391187266</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0001247563777724281</v>
+        <v>5.294664879329503e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>4.571595491142944e-05</v>
+        <v>6.414010567823425e-05</v>
       </c>
       <c r="DL16" t="n">
-        <v>6.388184556271881e-05</v>
+        <v>2.022203079832252e-05</v>
       </c>
       <c r="DM16" t="n">
-        <v>1.185954170068726e-05</v>
+        <v>7.616123184561729e-05</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.822737198788673e-06</v>
+        <v>7.335177360801026e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>2.602904896775726e-05</v>
+        <v>2.180801857321057e-06</v>
       </c>
       <c r="DP16" t="n">
-        <v>2.851881072274409e-05</v>
+        <v>2.009029958571773e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>6.932032647455344e-06</v>
+        <v>2.568838681327179e-05</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.0001665278396103531</v>
+        <v>1.31688175315503e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.577956729510333e-05</v>
+        <v>1.213269752042834e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.986401679867413e-06</v>
+        <v>1.802886799850967e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.000125323364045471</v>
+        <v>6.217150075826794e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>3.724193084053695e-05</v>
+        <v>3.653740350273438e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>2.825277442752849e-05</v>
+        <v>6.447864143410698e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.157922270067502e-05</v>
+        <v>2.260218025185168e-06</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.000100984689197503</v>
+        <v>1.490060185460607e-05</v>
       </c>
       <c r="DZ16" t="n">
-        <v>4.97659948450746e-06</v>
+        <v>4.573493424686603e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>2.524550291127525e-05</v>
+        <v>0.0001034509186865762</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0001002493154373951</v>
+        <v>2.757771108008455e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>1.15147304313723e-05</v>
+        <v>3.969791941926815e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.18438890442485e-05</v>
+        <v>3.800365448114462e-05</v>
       </c>
       <c r="EE16" t="n">
-        <v>2.209523518104106e-05</v>
+        <v>3.698281943798065e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>7.229416951304302e-05</v>
+        <v>1.342255745839793e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.056514287891332e-06</v>
+        <v>3.889292565872893e-05</v>
       </c>
       <c r="EH16" t="n">
-        <v>5.505575245479122e-06</v>
+        <v>4.040941803395981e-07</v>
       </c>
       <c r="EI16" t="n">
-        <v>3.277014002378564e-07</v>
+        <v>9.015738760353997e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>3.913150794687681e-05</v>
+        <v>4.073761738254689e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>3.432523953961208e-07</v>
+        <v>3.273994298069738e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>2.085414416796993e-05</v>
+        <v>3.962309347116388e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>4.718631680589169e-05</v>
+        <v>2.079080513794906e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>5.814721225760877e-05</v>
+        <v>1.618014721316285e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>3.972230842919089e-05</v>
+        <v>3.012984416272957e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.0001187457819469273</v>
+        <v>5.439189408207312e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>1.418646206730045e-05</v>
+        <v>3.049645238206722e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>5.850955858477391e-06</v>
+        <v>2.785350625345018e-05</v>
       </c>
       <c r="ES16" t="n">
-        <v>4.898186671198346e-05</v>
+        <v>2.326599314983469e-06</v>
       </c>
       <c r="ET16" t="n">
-        <v>2.917298297688831e-05</v>
+        <v>7.80811024014838e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>2.820494046318345e-05</v>
+        <v>7.744415052002296e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>8.95495104487054e-05</v>
+        <v>8.302494825329632e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>3.982081398135051e-05</v>
+        <v>0.0001519248471595347</v>
       </c>
       <c r="EX16" t="n">
-        <v>1.56677942868555e-05</v>
+        <v>3.546230800566263e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>7.279268174897879e-05</v>
+        <v>8.243061893153936e-05</v>
       </c>
       <c r="EZ16" t="n">
-        <v>2.323609987797681e-05</v>
+        <v>2.933533323812298e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>2.472407686582301e-06</v>
+        <v>6.476626731455326e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>6.84817714500241e-05</v>
+        <v>9.715026862977538e-07</v>
       </c>
       <c r="FC16" t="n">
-        <v>7.763133908156306e-06</v>
+        <v>3.144017682643607e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>5.541763130167965e-06</v>
+        <v>3.973553248215467e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>1.915113898576237e-05</v>
+        <v>1.069114387064474e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>1.448953753424576e-05</v>
+        <v>1.075071395462146e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0001362477778457105</v>
+        <v>9.110032260650769e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>7.381180330412462e-05</v>
+        <v>7.925086538307369e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0001014625522657298</v>
+        <v>3.401738649699837e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>6.603627298318315e-06</v>
+        <v>1.284320569538977e-05</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.000124195299576968</v>
+        <v>0.0001030725470627658</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.0001638633693801239</v>
+        <v>8.035094651859254e-06</v>
       </c>
       <c r="FM16" t="n">
-        <v>4.696669202530757e-05</v>
+        <v>2.100733399856836e-05</v>
       </c>
       <c r="FN16" t="n">
-        <v>2.423275509499945e-05</v>
+        <v>3.420557550271042e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>5.528096153284423e-05</v>
+        <v>8.714738942217082e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.0002827255520969629</v>
+        <v>3.448798815952614e-05</v>
       </c>
       <c r="FQ16" t="n">
-        <v>3.642756564659066e-05</v>
+        <v>5.155664985068142e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>3.713712794706225e-05</v>
+        <v>7.18432929716073e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>9.613021393306553e-05</v>
+        <v>8.278097811853513e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>9.254491305910051e-05</v>
+        <v>1.068321762431879e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>4.676249955082312e-05</v>
+        <v>0.0001131391909439117</v>
       </c>
       <c r="FV16" t="n">
-        <v>7.733289385214448e-05</v>
+        <v>6.147133535705507e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>5.166553819435649e-06</v>
+        <v>2.626972218422452e-06</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0001245360035682097</v>
+        <v>6.020910586812533e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0001242376456502825</v>
+        <v>6.448908243328333e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0001096540509024635</v>
+        <v>8.37944753584452e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>1.598236485733651e-05</v>
+        <v>3.364937947480939e-05</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.132571742346045e-05</v>
+        <v>4.389382229419425e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>3.666912380140275e-05</v>
+        <v>7.316612027352676e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>2.689129723876249e-05</v>
+        <v>9.997636516345665e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>2.007642433454748e-05</v>
+        <v>8.999829879030585e-05</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.547285475884564e-06</v>
+        <v>5.559751662076451e-05</v>
       </c>
       <c r="GG16" t="n">
-        <v>4.222733696224168e-05</v>
+        <v>3.019566247530747e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02155405655503273</v>
+        <v>0.0008505323203280568</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1322426199913025</v>
+        <v>0.002843304304406047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2073134332895279</v>
+        <v>0.0004335507692303509</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03140289336442947</v>
+        <v>0.0005595341790467501</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02816419675946236</v>
+        <v>0.0001836955052567646</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005365027114748955</v>
+        <v>0.00130123645067215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008089710958302021</v>
+        <v>4.769855877384543e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01427031494677067</v>
+        <v>0.0005482171545736492</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07340185344219208</v>
+        <v>0.0001459946215618402</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04421262443065643</v>
+        <v>0.000102009333204478</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1596615165472031</v>
+        <v>0.001710486831143498</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2178650498390198</v>
+        <v>0.0008099338156171143</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07245912402868271</v>
+        <v>0.0006558189052157104</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04079911112785339</v>
+        <v>0.00106242869514972</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01121666003018618</v>
+        <v>0.001074263593181968</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02812591008841991</v>
+        <v>0.0002131786750396714</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.007645847275853157</v>
+        <v>0.001764485496096313</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0950312539935112</v>
+        <v>0.0001899948401842266</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0133020356297493</v>
+        <v>2.055658114841208e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05720462650060654</v>
+        <v>0.00054036860819906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03019537776708603</v>
+        <v>0.000784547533839941</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0005594212561845779</v>
+        <v>7.536180783063173e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05095470324158669</v>
+        <v>0.0003536635776981711</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006671087816357613</v>
+        <v>0.0008458857191726565</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04351702332496643</v>
+        <v>0.0002937891113106161</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03968371823430061</v>
+        <v>0.0002231291146017611</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.009762299247086048</v>
+        <v>0.0001628676109248772</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02768213115632534</v>
+        <v>0.0001309512590523809</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.07505808770656586</v>
+        <v>0.0008856215863488615</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01329622603952885</v>
+        <v>0.0005086867022328079</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01570467464625835</v>
+        <v>0.0004700322169810534</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0588558167219162</v>
+        <v>0.0005019218078814447</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.008398601785302162</v>
+        <v>0.0001628994941711426</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.06296702474355698</v>
+        <v>0.0008253748528659344</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.03495141863822937</v>
+        <v>0.0006980552570894361</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.07385300099849701</v>
+        <v>4.21231088694185e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.005612051114439964</v>
+        <v>0.0004867812676820904</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.007843077182769775</v>
+        <v>0.0006674053147435188</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.04803600162267685</v>
+        <v>0.000118201453005895</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.02376668527722359</v>
+        <v>0.0001021297066472471</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.01235240418463945</v>
+        <v>0.0002377853234065697</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.008875600062310696</v>
+        <v>0.0007539290236309171</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01290493085980415</v>
+        <v>0.0006081056199036539</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.008729731664061546</v>
+        <v>0.0004932766896672547</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.01634615659713745</v>
+        <v>0.0002360700309509411</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.01359896548092365</v>
+        <v>0.00053895462770015</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.03866612911224365</v>
+        <v>0.003804495092481375</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.08676153421401978</v>
+        <v>0.0003262669779360294</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.07074612379074097</v>
+        <v>0.0006100634927861392</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.07645458728075027</v>
+        <v>0.0008643987239338458</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.02048190869390965</v>
+        <v>0.0003572950081434101</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.008952749893069267</v>
+        <v>0.0003722329856827855</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.01290739886462688</v>
+        <v>0.0004596968647092581</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.01947772689163685</v>
+        <v>0.0006475361878983676</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0244576632976532</v>
+        <v>0.0003033608663827181</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.07176777720451355</v>
+        <v>0.0007318822899833322</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.05386769026517868</v>
+        <v>0.0005353817250579596</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.01193523034453392</v>
+        <v>0.001205687178298831</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1115997061133385</v>
+        <v>0.0006985719664953649</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.01335034240037203</v>
+        <v>0.001479849102906883</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0005424674600362778</v>
+        <v>0.0001336366985924542</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.03672231361269951</v>
+        <v>0.001309941406361759</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0168477613478899</v>
+        <v>3.336419831612147e-05</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.01494578644633293</v>
+        <v>0.0001983356778509915</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.009615127928555012</v>
+        <v>0.002226844895631075</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.02047256380319595</v>
+        <v>0.0005207770154811442</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.03533266857266426</v>
+        <v>0.001019244780763984</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.01297192741185427</v>
+        <v>0.002088940469548106</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.04896702244877815</v>
+        <v>0.001089965924620628</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01610585302114487</v>
+        <v>0.0002378632489126176</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.04404358938336372</v>
+        <v>0.001271849730983377</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.01530380547046661</v>
+        <v>0.0005001036915928125</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.02051021531224251</v>
+        <v>0.0005397095228545368</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.05414193123579025</v>
+        <v>0.0016177719226107</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.07316620647907257</v>
+        <v>0.0003554804425220937</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.04100028425455093</v>
+        <v>8.865914423950016e-06</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.01220982614904642</v>
+        <v>0.000208415454835631</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.00640342989936471</v>
+        <v>0.001270335982553661</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.004626341164112091</v>
+        <v>0.0008248433005064726</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.05475621670484543</v>
+        <v>0.0001764279440976679</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.03392425552010536</v>
+        <v>0.0001260311692021787</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.002401642501354218</v>
+        <v>0.0001185248984256759</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.02358282171189785</v>
+        <v>0.000428648287197575</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.03499478846788406</v>
+        <v>6.78036012686789e-05</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.01166306622326374</v>
+        <v>0.000394594157114625</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.004260236397385597</v>
+        <v>0.0003345828736200929</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.008043412119150162</v>
+        <v>0.0003683910181280226</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.01015827059745789</v>
+        <v>8.979240374173969e-05</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.004367676097899675</v>
+        <v>8.337509643752128e-05</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.02206850238144398</v>
+        <v>7.919032941572368e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.04235579073429108</v>
+        <v>0.001016989466734231</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.004628929775208235</v>
+        <v>0.001943820039741695</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.02013003453612328</v>
+        <v>0.0001255898096133024</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.005017208866775036</v>
+        <v>0.0006152760470286012</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.06306839734315872</v>
+        <v>0.00136575975921005</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.02968552708625793</v>
+        <v>0.0003284615813754499</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.008121403865516186</v>
+        <v>0.0002130060456693172</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.04074804857373238</v>
+        <v>9.048471838468686e-05</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.03732693940401077</v>
+        <v>0.0005521703860722482</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.001326348632574081</v>
+        <v>3.636760084191337e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.02017543837428093</v>
+        <v>0.0002990641514770687</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.03354392945766449</v>
+        <v>3.400749119464308e-05</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.01958228088915348</v>
+        <v>0.0004323958128225058</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.01860159263014793</v>
+        <v>0.0001467148977098987</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.007681772112846375</v>
+        <v>0.00064902997110039</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.008756646886467934</v>
+        <v>0.0001345511700492352</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.002502288669347763</v>
+        <v>5.725699884351343e-05</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.01342212408781052</v>
+        <v>5.181527740205638e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.04116328433156013</v>
+        <v>0.001752988900989294</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0003775209188461304</v>
+        <v>0.002068067668005824</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.007783787325024605</v>
+        <v>0.0007754967082291842</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.03204919397830963</v>
+        <v>0.001285947277210653</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.008692784234881401</v>
+        <v>0.001078109489753842</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.01172512955963612</v>
+        <v>0.0007399925962090492</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.004597919527441263</v>
+        <v>0.00173130095936358</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.06768885999917984</v>
+        <v>0.0006031944649294019</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.01459955051541328</v>
+        <v>0.0003892921376973391</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.02976072579622269</v>
+        <v>0.0006848495686426759</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.02143688499927521</v>
+        <v>0.0007839691825211048</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.005444360896945</v>
+        <v>0.0002630223461892456</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.03080093488097191</v>
+        <v>0.000127393810544163</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.04319441318511963</v>
+        <v>0.0002974185917992145</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.007064216770231724</v>
+        <v>0.0002808726858347654</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.03265118226408958</v>
+        <v>0.0006212390726432204</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0008851364254951477</v>
+        <v>0.0004934776807203889</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.002301812171936035</v>
+        <v>0.0001151808464783244</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.03377649188041687</v>
+        <v>0.0003236030752304941</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.01851547509431839</v>
+        <v>0.0004906771355308592</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.003960859961807728</v>
+        <v>0.0001460195198887959</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.007060861214995384</v>
+        <v>0.0008376942132599652</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.04883013293147087</v>
+        <v>0.0006476063863374293</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.007690861821174622</v>
+        <v>0.0009886116022244096</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.02748825401067734</v>
+        <v>0.0005013816407881677</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.02957724779844284</v>
+        <v>0.0004486441030167043</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.002955189906060696</v>
+        <v>0.0001150238604168408</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.002452362328767776</v>
+        <v>0.0002902068081311882</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.01416562963277102</v>
+        <v>0.0004246406315360218</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.02991722524166107</v>
+        <v>1.761327257554512e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.03311911970376968</v>
+        <v>0.000441571872215718</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.004797555506229401</v>
+        <v>0.0001844052894739434</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.003063040785491467</v>
+        <v>0.0005844797706231475</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.006053217686712742</v>
+        <v>0.0003492832474876195</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.02740035206079483</v>
+        <v>0.0001637624227441847</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.01532167289406061</v>
+        <v>7.782421016599983e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.03486157208681107</v>
+        <v>0.0003996954474132508</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.04544152319431305</v>
+        <v>0.0001398943568347022</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.01385220140218735</v>
+        <v>0.0001347508223261684</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.03683673590421677</v>
+        <v>6.789007602492347e-05</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.02388587780296803</v>
+        <v>0.0003607983526308089</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0005404544062912464</v>
+        <v>0.0007015075534582138</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.005086446180939674</v>
+        <v>9.375947411172092e-05</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.00146877218503505</v>
+        <v>0.0004777990106958896</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.04210787266492844</v>
+        <v>0.0002766017278190702</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.005987848155200481</v>
+        <v>0.0001719754654914141</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.01580595783889294</v>
+        <v>0.0002865759888663888</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.03361594676971436</v>
+        <v>0.000181236260687001</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0141283068805933</v>
+        <v>0.0003114977735094726</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.01753081567585468</v>
+        <v>0.0002843235270120203</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.00308620254509151</v>
+        <v>0.0006284599076025188</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.006525162607431412</v>
+        <v>9.312984184361994e-05</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.002205103170126677</v>
+        <v>0.0002140489377779886</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.02185602486133575</v>
+        <v>1.048707599693444e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.01639068871736526</v>
+        <v>0.0006403629668056965</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.01851572468876839</v>
+        <v>0.000431936961831525</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.06456629931926727</v>
+        <v>0.0002324925153516233</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0156300887465477</v>
+        <v>0.0001003763463813812</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.003124572336673737</v>
+        <v>0.0008442343678325415</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.03786381334066391</v>
+        <v>0.0006534696440212429</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.04669663310050964</v>
+        <v>0.0001824360806494951</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.004937924444675446</v>
+        <v>0.0002241824113298208</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.01171911507844925</v>
+        <v>0.0001455577003071085</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.08838508278131485</v>
+        <v>0.0001033781154546887</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.014814761467278</v>
+        <v>0.0002088439359795302</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.04518835619091988</v>
+        <v>0.0004384546482469887</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.004513261839747429</v>
+        <v>0.001283889869228005</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.03030825220048428</v>
+        <v>0.0005974715459160507</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.03382403403520584</v>
+        <v>0.0003727099974639714</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.009910327382385731</v>
+        <v>0.000358289573341608</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.01465746760368347</v>
+        <v>0.0001450681156711653</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.08644535392522812</v>
+        <v>0.0003975361178163439</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02444792538881302</v>
+        <v>2.687753294594586e-06</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.01394612528383732</v>
+        <v>0.001206466811709106</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.02866899780929089</v>
+        <v>0.0002359558711759746</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.04103536903858185</v>
+        <v>0.0009897089330479503</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.07545164227485657</v>
+        <v>0.0008747492101974785</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.02150535956025124</v>
+        <v>0.0005127352778799832</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.01406987942755222</v>
+        <v>0.000829711148981005</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.008347341790795326</v>
+        <v>0.0009746334981173277</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.02185722254216671</v>
+        <v>6.88017244101502e-05</v>
       </c>
     </row>
   </sheetData>
